--- a/MPC82/PitchTable.xlsx
+++ b/MPC82/PitchTable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="684">
   <si>
     <t>C調</t>
   </si>
@@ -4841,15 +4841,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>P64</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>P55</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>排到後面</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -5056,6 +5048,10 @@
   </si>
   <si>
     <t>17 (P32)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P27</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5896,10 +5892,10 @@
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5934,13 +5930,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="35" t="s">
+        <v>665</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>667</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>668</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>669</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
@@ -5995,13 +5991,13 @@
         <v>8</v>
       </c>
       <c r="L2" s="17">
+        <v>8</v>
+      </c>
+      <c r="M2" s="17">
+        <v>8</v>
+      </c>
+      <c r="N2" s="14">
         <v>9</v>
-      </c>
-      <c r="M2" s="17">
-        <v>10</v>
-      </c>
-      <c r="N2" s="14">
-        <v>11</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="14">
@@ -6659,7 +6655,7 @@
         <v>378</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I19" s="22" t="s">
         <v>23</v>
@@ -6838,7 +6834,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F23" s="18">
         <v>21</v>
@@ -6869,7 +6865,7 @@
         <v>56</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="R23" s="6" t="s">
         <v>367</v>
@@ -6896,7 +6892,7 @@
         <v>383</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I24" s="22" t="s">
         <v>23</v>
@@ -6912,15 +6908,13 @@
       <c r="N24" s="32" t="s">
         <v>503</v>
       </c>
-      <c r="O24" s="40" t="s">
-        <v>665</v>
-      </c>
+      <c r="O24" s="40"/>
       <c r="P24" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="R24" s="6" t="s">
         <v>347</v>
@@ -7002,7 +6996,7 @@
         <v>6</v>
       </c>
       <c r="J26" s="47" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="K26" s="34" t="s">
         <v>540</v>
@@ -7051,7 +7045,7 @@
         <v>7</v>
       </c>
       <c r="J27" s="47" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K27" s="42" t="s">
         <v>541</v>
@@ -7147,7 +7141,7 @@
         <v>388</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I29" s="22" t="s">
         <v>23</v>
@@ -7402,7 +7396,7 @@
         <v>393</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I34" s="22" t="s">
         <v>23</v>
@@ -7566,7 +7560,7 @@
       </c>
       <c r="L37" s="29"/>
       <c r="M37" s="42" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N37" s="31" t="s">
         <v>512</v>
@@ -7604,7 +7598,7 @@
         <v>397</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I38" s="22" t="s">
         <v>23</v>
@@ -7638,7 +7632,7 @@
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D39" s="3">
         <v>20</v>
@@ -7650,7 +7644,7 @@
         <v>6</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H39" s="10">
         <v>16</v>
@@ -7855,7 +7849,7 @@
         <v>400</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I43" s="22" t="s">
         <v>23</v>
@@ -8104,7 +8098,7 @@
         <v>16</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H49" s="35" t="s">
         <v>368</v>
@@ -8244,7 +8238,7 @@
         <v>34</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F53" s="18">
         <v>20</v>

--- a/MPC82/PitchTable.xlsx
+++ b/MPC82/PitchTable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="683">
   <si>
     <t>C調</t>
   </si>
@@ -1235,14 +1235,6 @@
       </rPr>
       <t>57</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P62</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P63</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1998,10 +1990,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>風鈴方向</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>止(P57)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -5052,6 +5040,14 @@
   </si>
   <si>
     <t>P27</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>風鈴方向 (P62)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>風鈴輸入 (P14)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5892,10 +5888,10 @@
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomRight" activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5930,13 +5926,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
@@ -6014,7 +6010,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="36" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F3" s="18">
         <v>1</v>
@@ -6024,12 +6020,12 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="34" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="23"/>
       <c r="N3" s="31" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O3" s="16"/>
       <c r="P3" s="6">
@@ -6055,7 +6051,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F4" s="18">
         <v>2</v>
@@ -6073,14 +6069,14 @@
         <v>2</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="L4" s="6">
         <v>12</v>
       </c>
       <c r="M4" s="23"/>
       <c r="N4" s="32" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="O4" s="16" t="s">
         <v>17</v>
@@ -6104,7 +6100,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="36" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F5" s="18">
         <v>3</v>
@@ -6114,12 +6110,12 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="34" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="23"/>
       <c r="N5" s="32" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="O5" s="16"/>
       <c r="P5" s="6">
@@ -6141,7 +6137,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="36" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F6" s="18">
         <v>4</v>
@@ -6151,12 +6147,12 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="34" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="23"/>
       <c r="N6" s="32" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="O6" s="16"/>
       <c r="P6" s="6">
@@ -6178,7 +6174,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="36" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F7" s="18">
         <v>5</v>
@@ -6187,15 +6183,15 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="49" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="K7" s="34" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="23"/>
       <c r="N7" s="33" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="O7" s="16"/>
       <c r="P7" s="6">
@@ -6217,7 +6213,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="36" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F8" s="18">
         <v>6</v>
@@ -6226,15 +6222,15 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="45" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="23"/>
       <c r="N8" s="31" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="O8" s="16"/>
       <c r="P8" s="6">
@@ -6256,7 +6252,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="36" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F9" s="18">
         <v>7</v>
@@ -6265,15 +6261,15 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="46" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="23"/>
       <c r="N9" s="33" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="O9" s="16"/>
       <c r="P9" s="6">
@@ -6295,7 +6291,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="36" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F10" s="18">
         <v>8</v>
@@ -6304,15 +6300,15 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="45" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="23"/>
       <c r="N10" s="31" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="O10" s="16"/>
       <c r="P10" s="6">
@@ -6334,7 +6330,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="36" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F11" s="18">
         <v>9</v>
@@ -6343,15 +6339,15 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="47" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="23"/>
       <c r="N11" s="32" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O11" s="16"/>
       <c r="P11" s="6">
@@ -6373,7 +6369,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="26"/>
       <c r="E12" s="36" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F12" s="18">
         <v>10</v>
@@ -6382,15 +6378,15 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="49" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="23"/>
       <c r="N12" s="33" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="O12" s="24"/>
       <c r="P12" s="6">
@@ -6412,7 +6408,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="28"/>
       <c r="E13" s="36" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F13" s="18">
         <v>11</v>
@@ -6421,18 +6417,18 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="45" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="23"/>
       <c r="N13" s="31" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="O13" s="53" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="0"/>
@@ -6453,7 +6449,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="36" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F14" s="18">
         <v>12</v>
@@ -6462,15 +6458,15 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="46" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="23"/>
       <c r="N14" s="33" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="O14" s="54"/>
       <c r="P14" s="6">
@@ -6492,7 +6488,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="36" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F15" s="18">
         <v>13</v>
@@ -6501,15 +6497,15 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="45" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="23"/>
       <c r="N15" s="31" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="O15" s="54"/>
       <c r="P15" s="6">
@@ -6531,7 +6527,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="36" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F16" s="18">
         <v>14</v>
@@ -6540,15 +6536,15 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="47" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="23"/>
       <c r="N16" s="33" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="O16" s="55"/>
       <c r="P16" s="6">
@@ -6570,7 +6566,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="36" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F17" s="18">
         <v>15</v>
@@ -6579,15 +6575,15 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="50" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="23"/>
       <c r="N17" s="31" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="6">
@@ -6609,7 +6605,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="36" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F18" s="18">
         <v>16</v>
@@ -6618,15 +6614,15 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="47" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="23"/>
       <c r="N18" s="32" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="O18" s="16"/>
       <c r="P18" s="6">
@@ -6646,30 +6642,30 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="36" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F19" s="18">
         <v>17</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="I19" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J19" s="47" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="23"/>
       <c r="N19" s="32" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="O19" s="16"/>
       <c r="P19" s="6">
@@ -6687,19 +6683,19 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F20" s="18">
         <v>18</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H20" s="10">
         <v>1</v>
@@ -6708,15 +6704,15 @@
         <v>1</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="23"/>
       <c r="N20" s="32" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="6">
@@ -6734,19 +6730,19 @@
         <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D21" s="3">
         <v>2</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F21" s="18">
         <v>19</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H21" s="10">
         <v>2</v>
@@ -6755,15 +6751,15 @@
         <v>2</v>
       </c>
       <c r="J21" s="47" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="23"/>
       <c r="N21" s="33" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="6">
@@ -6781,19 +6777,19 @@
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F22" s="18">
         <v>20</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H22" s="10">
         <v>3</v>
@@ -6802,15 +6798,15 @@
         <v>3</v>
       </c>
       <c r="J22" s="50" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="23"/>
       <c r="N22" s="31" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="6">
@@ -6828,19 +6824,19 @@
         <v>31</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D23" s="3">
         <v>4</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F23" s="18">
         <v>21</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H23" s="10">
         <v>4</v>
@@ -6849,15 +6845,15 @@
         <v>4</v>
       </c>
       <c r="J23" s="47" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="23"/>
       <c r="N23" s="32" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="6">
@@ -6865,7 +6861,7 @@
         <v>56</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="R23" s="6" t="s">
         <v>367</v>
@@ -6877,36 +6873,36 @@
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D24" s="3">
         <v>5</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F24" s="18">
         <v>22</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="I24" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="47" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="23"/>
       <c r="N24" s="32" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O24" s="40"/>
       <c r="P24" s="6">
@@ -6914,7 +6910,7 @@
         <v>57</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="R24" s="6" t="s">
         <v>347</v>
@@ -6926,19 +6922,19 @@
         <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D25" s="3">
         <v>6</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F25" s="18">
         <v>23</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H25" s="10">
         <v>5</v>
@@ -6947,15 +6943,15 @@
         <v>5</v>
       </c>
       <c r="J25" s="47" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="23"/>
       <c r="N25" s="32" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="6">
@@ -6975,19 +6971,19 @@
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D26" s="3">
         <v>7</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F26" s="18">
         <v>24</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H26" s="10">
         <v>6</v>
@@ -6996,15 +6992,15 @@
         <v>6</v>
       </c>
       <c r="J26" s="47" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="23"/>
       <c r="N26" s="33" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="6">
@@ -7024,19 +7020,19 @@
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D27" s="3">
         <v>8</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F27" s="18">
         <v>25</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H27" s="10">
         <v>7</v>
@@ -7045,17 +7041,17 @@
         <v>7</v>
       </c>
       <c r="J27" s="47" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K27" s="42" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="L27" s="29"/>
       <c r="M27" s="42" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="N27" s="31" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="6">
@@ -7075,19 +7071,19 @@
         <v>42</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D28" s="3">
         <v>9</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F28" s="18">
         <v>26</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H28" s="10">
         <v>8</v>
@@ -7096,17 +7092,17 @@
         <v>8</v>
       </c>
       <c r="J28" s="47" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K28" s="42" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="L28" s="29"/>
       <c r="M28" s="42" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="N28" s="32" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="6">
@@ -7126,38 +7122,38 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D29" s="3">
         <v>10</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F29" s="18">
         <v>27</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="I29" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J29" s="47" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K29" s="42" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="L29" s="29"/>
       <c r="M29" s="42" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="N29" s="32" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="6">
@@ -7177,19 +7173,19 @@
         <v>46</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D30" s="3">
         <v>11</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F30" s="18">
         <v>28</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H30" s="10">
         <v>9</v>
@@ -7198,17 +7194,17 @@
         <v>9</v>
       </c>
       <c r="J30" s="47" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="K30" s="42" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="L30" s="29"/>
       <c r="M30" s="42" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="N30" s="32" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="6">
@@ -7228,19 +7224,19 @@
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D31" s="3">
         <v>12</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F31" s="18">
         <v>29</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H31" s="10">
         <v>10</v>
@@ -7249,17 +7245,17 @@
         <v>10</v>
       </c>
       <c r="J31" s="47" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K31" s="42" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="L31" s="29"/>
       <c r="M31" s="42" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="N31" s="33" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="6">
@@ -7279,19 +7275,19 @@
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D32" s="3">
         <v>13</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F32" s="18">
         <v>30</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H32" s="10">
         <v>11</v>
@@ -7300,17 +7296,17 @@
         <v>11</v>
       </c>
       <c r="J32" s="51" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="K32" s="42" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="L32" s="29"/>
       <c r="M32" s="42" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="N32" s="31" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="6">
@@ -7330,19 +7326,19 @@
         <v>52</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D33" s="3">
         <v>14</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F33" s="18">
         <v>31</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H33" s="10">
         <v>12</v>
@@ -7351,17 +7347,17 @@
         <v>12</v>
       </c>
       <c r="J33" s="51" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="K33" s="42" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L33" s="29"/>
       <c r="M33" s="42" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="N33" s="32" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="6">
@@ -7381,38 +7377,38 @@
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D34" s="3">
         <v>15</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F34" s="18">
         <v>1</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="I34" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J34" s="51" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="K34" s="42" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L34" s="29"/>
       <c r="M34" s="42" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="N34" s="32" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="6">
@@ -7432,19 +7428,19 @@
         <v>56</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D35" s="3">
         <v>16</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F35" s="18">
         <v>2</v>
       </c>
       <c r="G35" s="38" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H35" s="10">
         <v>13</v>
@@ -7453,17 +7449,17 @@
         <v>13</v>
       </c>
       <c r="J35" s="35" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="K35" s="42" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L35" s="29"/>
       <c r="M35" s="42" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="N35" s="32" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="6">
@@ -7483,19 +7479,19 @@
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D36" s="3">
         <v>17</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F36" s="18">
         <v>3</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H36" s="10">
         <v>14</v>
@@ -7505,16 +7501,16 @@
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="42" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L36" s="42" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="M36" s="42" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="N36" s="33" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="6">
@@ -7534,19 +7530,19 @@
         <v>60</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D37" s="3">
         <v>18</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F37" s="18">
         <v>4</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H37" s="10">
         <v>15</v>
@@ -7556,14 +7552,14 @@
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="42" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="L37" s="29"/>
       <c r="M37" s="42" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="N37" s="31" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="6">
@@ -7583,36 +7579,36 @@
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D38" s="3">
         <v>19</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F38" s="18">
         <v>5</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="I38" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="42" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L38" s="29"/>
       <c r="M38" s="42" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="N38" s="33" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="6">
@@ -7632,19 +7628,19 @@
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D39" s="3">
         <v>20</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F39" s="18">
         <v>6</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="H39" s="10">
         <v>16</v>
@@ -7654,14 +7650,14 @@
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="42" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L39" s="29"/>
       <c r="M39" s="42" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="N39" s="31" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O39" s="40"/>
       <c r="P39" s="6">
@@ -7669,7 +7665,7 @@
         <v>72</v>
       </c>
       <c r="Q39" s="34" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="R39" s="6" t="s">
         <v>362</v>
@@ -7681,19 +7677,19 @@
         <v>65</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D40" s="3">
         <v>21</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F40" s="18">
         <v>7</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H40" s="10">
         <v>17</v>
@@ -7703,17 +7699,17 @@
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="42" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="L40" s="29"/>
       <c r="M40" s="42" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="N40" s="33" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="O40" s="41" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="P40" s="6">
         <f t="shared" si="0"/>
@@ -7732,19 +7728,19 @@
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D41" s="3">
         <v>22</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F41" s="18">
         <v>8</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H41" s="10">
         <v>18</v>
@@ -7754,17 +7750,17 @@
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="42" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="L41" s="29"/>
       <c r="M41" s="42" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="N41" s="44" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O41" s="34" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="P41" s="6">
         <f t="shared" si="0"/>
@@ -7783,19 +7779,19 @@
         <v>67</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D42" s="3">
         <v>23</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F42" s="18">
         <v>9</v>
       </c>
       <c r="G42" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H42" s="10">
         <v>19</v>
@@ -7805,25 +7801,23 @@
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="34" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="L42" s="35" t="s">
         <v>368</v>
       </c>
       <c r="M42" s="35" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="N42" s="34"/>
       <c r="O42" s="35" t="s">
-        <v>476</v>
+        <v>681</v>
       </c>
       <c r="P42" s="6">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="Q42" s="34" t="s">
-        <v>374</v>
-      </c>
+      <c r="Q42" s="34"/>
       <c r="R42" s="6" t="s">
         <v>365</v>
       </c>
@@ -7834,43 +7828,41 @@
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D43" s="3">
         <v>24</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F43" s="18">
         <v>10</v>
       </c>
       <c r="G43" s="37" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="I43" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="34" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="35" t="s">
-        <v>475</v>
+        <v>682</v>
       </c>
       <c r="P43" s="6">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="Q43" s="34" t="s">
-        <v>375</v>
-      </c>
+      <c r="Q43" s="34"/>
       <c r="R43" s="6" t="s">
         <v>366</v>
       </c>
@@ -7881,19 +7873,19 @@
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D44" s="3">
         <v>25</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F44" s="18">
         <v>11</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H44" s="10">
         <v>20</v>
@@ -7903,7 +7895,7 @@
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="34" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
@@ -7922,19 +7914,19 @@
         <v>71</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D45" s="3">
         <v>26</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F45" s="18">
         <v>12</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H45" s="10">
         <v>21</v>
@@ -7944,7 +7936,7 @@
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="34" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
@@ -7963,19 +7955,19 @@
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D46" s="3">
         <v>27</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F46" s="18">
         <v>13</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H46" s="10">
         <v>22</v>
@@ -7985,7 +7977,7 @@
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="34" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
@@ -8004,19 +7996,19 @@
         <v>75</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D47" s="3">
         <v>28</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F47" s="18">
         <v>14</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H47" s="10">
         <v>23</v>
@@ -8026,7 +8018,7 @@
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="34" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
@@ -8045,19 +8037,19 @@
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D48" s="3">
         <v>29</v>
       </c>
       <c r="E48" s="36" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F48" s="18">
         <v>15</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H48" s="10">
         <v>24</v>
@@ -8067,7 +8059,7 @@
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="34" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
@@ -8086,19 +8078,19 @@
         <v>79</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D49" s="3">
         <v>30</v>
       </c>
       <c r="E49" s="36" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F49" s="18">
         <v>16</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="H49" s="35" t="s">
         <v>368</v>
@@ -8108,7 +8100,7 @@
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="34" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
@@ -8127,13 +8119,13 @@
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D50" s="3">
         <v>31</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F50" s="18">
         <v>17</v>
@@ -8143,7 +8135,7 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="34" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
@@ -8162,13 +8154,13 @@
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D51" s="3">
         <v>32</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F51" s="18">
         <v>18</v>
@@ -8178,7 +8170,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="34" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
@@ -8197,13 +8189,13 @@
         <v>85</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D52" s="3">
         <v>33</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F52" s="18">
         <v>19</v>
@@ -8213,7 +8205,7 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="34" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
@@ -8232,13 +8224,13 @@
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D53" s="3">
         <v>34</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F53" s="18">
         <v>20</v>
@@ -8248,7 +8240,7 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="34" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
@@ -8267,13 +8259,13 @@
         <v>88</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D54" s="3">
         <v>35</v>
       </c>
       <c r="E54" s="36" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F54" s="18">
         <v>21</v>
@@ -8283,7 +8275,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="34" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
@@ -8302,13 +8294,13 @@
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D55" s="3">
         <v>36</v>
       </c>
       <c r="E55" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F55" s="18">
         <v>22</v>
@@ -8318,7 +8310,7 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="34" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
@@ -8337,13 +8329,13 @@
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D56" s="3">
         <v>37</v>
       </c>
       <c r="E56" s="36" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F56" s="18">
         <v>23</v>
@@ -8353,7 +8345,7 @@
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="34" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
@@ -8372,11 +8364,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="36" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F57" s="18">
         <v>24</v>
@@ -8386,7 +8378,7 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="34" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
@@ -8407,7 +8399,7 @@
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="36" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F58" s="18">
         <v>25</v>
@@ -8417,7 +8409,7 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="34" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
@@ -8438,7 +8430,7 @@
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="36" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F59" s="18">
         <v>26</v>
@@ -8448,7 +8440,7 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="34" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
@@ -8469,7 +8461,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="36" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F60" s="18">
         <v>27</v>
@@ -8479,7 +8471,7 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="34" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
@@ -8500,7 +8492,7 @@
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="36" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F61" s="18">
         <v>28</v>
@@ -8510,7 +8502,7 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="34" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
@@ -8531,7 +8523,7 @@
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="36" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F62" s="18">
         <v>29</v>
@@ -8541,7 +8533,7 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="34" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
@@ -8562,7 +8554,7 @@
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="36" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F63" s="18">
         <v>30</v>
@@ -8572,7 +8564,7 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="34" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
@@ -8593,7 +8585,7 @@
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="36" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F64" s="18">
         <v>31</v>
@@ -8603,7 +8595,7 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="34" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
@@ -8624,7 +8616,7 @@
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="36" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F65" s="18">
         <v>32</v>
@@ -8634,7 +8626,7 @@
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="34" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
@@ -8655,7 +8647,7 @@
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="36" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F66" s="18">
         <v>33</v>
@@ -8665,7 +8657,7 @@
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="34" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
@@ -8686,7 +8678,7 @@
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="36" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F67" s="18">
         <v>34</v>
@@ -8696,7 +8688,7 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="34" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
@@ -8717,7 +8709,7 @@
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="36" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F68" s="18">
         <v>35</v>
@@ -8727,7 +8719,7 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="34" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
@@ -8754,7 +8746,7 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="34" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
@@ -8775,17 +8767,17 @@
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="34" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
@@ -8812,7 +8804,7 @@
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="34" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
@@ -8839,7 +8831,7 @@
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="34" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
@@ -8866,7 +8858,7 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="34" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
@@ -8893,7 +8885,7 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="34" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>

--- a/MPC82/PitchTable.xlsx
+++ b/MPC82/PitchTable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="663">
   <si>
     <t>C調</t>
   </si>
@@ -1235,12 +1235,6 @@
       </rPr>
       <t>57</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>止音，依據音符長度來定義
-Crash 止 (P26)
-Ride 止 (P32)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1986,10 +1980,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>風鈴輸入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>止(P57)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2125,21 +2115,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 9</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Open Hi-Hat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 10</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2869,9 +2844,639 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Ride </t>
-    </r>
+    <t>C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bm</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bm</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bm</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bm</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Am</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bm</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>b7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>b7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>b7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>b7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>b7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>maj7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bmaj7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>maj7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bmaj7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>maj7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>maj7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bmaj7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>maj7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bmaj7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>maj7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bmaj7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>maj7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 (P57)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>52 (P55)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>17 (P50)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2880,1002 +3485,17 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>止</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 39</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Crash </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 38</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>bm</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>bm</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>bm</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>bm</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Am</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>bm</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>b7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>b7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>b7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>b7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>b7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>maj7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>bmaj7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>maj7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>bmaj7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>maj7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>maj7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>bmaj7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>maj7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>bmaj7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>maj7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>bmaj7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>maj7</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>dim</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>bdim</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>dim</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>bdim</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>dim</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>dim</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>bdim</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>dim</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>bdim</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adim</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>bdim</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>dim</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>aug</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>baug</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>aug</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>baug</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>aug</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>aug</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>aug</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>baug</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>aug</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>baug</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>aug</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>21 (P57)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>52 (P55)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>17 (P50)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
+      <t>風鈴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -3884,17 +3504,424 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>風鈴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
+      <t>高音到低音</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P00)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P01)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P02)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P03)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P04)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P05)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P06)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P07)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 (P11)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P14)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P15)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P16)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P17)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P20)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P21)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P22)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P23)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P24)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P25)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P26)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P34)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P35)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P36)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P37)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>27 (P40)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P41)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P42)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P43)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P46)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -3903,13 +3930,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>高音到低音</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>空弦</t>
     </r>
     <r>
       <rPr>
@@ -3923,401 +3944,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P01)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P02)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P03)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P04)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P05)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P06)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P07)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 (P11)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P14)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P15)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P16)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P17)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P20)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P21)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P22)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P23)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P24)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P25)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P26)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P34)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P35)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P36)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P37)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>27 (P40)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P41)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>29</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P42)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P43)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P46)</t>
-    </r>
+    <t>1 (P01)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 (P02)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 (P03)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (P04)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -4338,24 +3977,68 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (P00)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 (P01)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 (P02)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 (P03)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 (P04)</t>
+      <t>P05</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P06)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P07)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P11)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P14)</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -4376,67 +4059,67 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>P05</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P06)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P07)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P11)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P14)</t>
+      <t>P15</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P16)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P17)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P20)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P21)</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4458,71 +4141,324 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>P15</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P16)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P17)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P20)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P21)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
+      <t>P22</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P23)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P24)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P25)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>19 (P34)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P35)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P36)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P37)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P40)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P41)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 (P43)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>止(P42)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P04 P22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P05 P23</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P07 P24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P11 P25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P14 P26</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P17 P34</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22 (P55)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P16 P37</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P55</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>電吉他 E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>民謠吉他G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>古典吉他A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 空弦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">26 </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -4533,330 +4469,20 @@
       </rPr>
       <t>空弦</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>P22</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P23)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P24)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P25)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>19 (P34)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P35)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P36)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P37)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P40)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P41)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>18 (P43)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>止(P42)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>02</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>03</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>06</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>21</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P04 P22</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P05 P23</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P07 P24</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P11 P25</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P14 P26</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>35</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P17 P34</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>22 (P55)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P16 P37</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P55</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>電吉他 E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>民謠吉他G</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>古典吉他A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>25 空弦</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">26 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -4881,7 +4507,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -4906,7 +4532,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -4922,16 +4548,16 @@
   </si>
   <si>
     <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">9 </t>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
     </r>
     <r>
       <rPr>
@@ -4947,16 +4573,7 @@
   </si>
   <si>
     <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0 </t>
+      <t>31</t>
     </r>
     <r>
       <rPr>
@@ -4966,13 +4583,81 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>空弦</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>31</t>
+      <t>止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(P46)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 (P56)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 (P56)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 (P32)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P15 P32</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P32</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 (P32)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (P26)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>17 (P32)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P27</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>風鈴方向 (P57)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>風鈴輸入 (P33)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crash  38 (None)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ride </t>
     </r>
     <r>
       <rPr>
@@ -4991,63 +4676,44 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>(P46)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>21 (P56)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>51 (P56)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16 (P32)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P15 P32</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P32</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 (P32)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (P26)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>17 (P32)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P27</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>風鈴方向 (P62)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>風鈴輸入 (P14)</t>
+      <t xml:space="preserve"> 39 (None)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open Hi-Hat 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(P14)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>止音，依據音符長度來定義</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>單音</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>和弦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上刷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下刷</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5410,7 +5076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5541,9 +5207,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5888,10 +5551,10 @@
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q43" sqref="Q43"/>
+      <selection pane="bottomRight" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5926,13 +5589,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>662</v>
+        <v>634</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>663</v>
+        <v>635</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>664</v>
+        <v>636</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
@@ -5955,10 +5618,10 @@
       <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="17">
         <v>0</v>
       </c>
@@ -5983,7 +5646,7 @@
       <c r="J2" s="17">
         <v>7</v>
       </c>
-      <c r="K2" s="48">
+      <c r="K2" s="47">
         <v>8</v>
       </c>
       <c r="L2" s="17">
@@ -6010,22 +5673,24 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="36" t="s">
-        <v>589</v>
+        <v>561</v>
       </c>
       <c r="F3" s="18">
         <v>1</v>
       </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="34" t="s">
+        <v>509</v>
+      </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="34" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="23"/>
       <c r="N3" s="31" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O3" s="16"/>
       <c r="P3" s="6">
@@ -6051,7 +5716,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>590</v>
+        <v>562</v>
       </c>
       <c r="F4" s="18">
         <v>2</v>
@@ -6059,8 +5724,8 @@
       <c r="G4" s="6">
         <v>8</v>
       </c>
-      <c r="H4" s="6">
-        <v>8</v>
+      <c r="H4" s="34" t="s">
+        <v>510</v>
       </c>
       <c r="I4" s="6">
         <v>8</v>
@@ -6069,14 +5734,14 @@
         <v>2</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="L4" s="6">
         <v>12</v>
       </c>
       <c r="M4" s="23"/>
       <c r="N4" s="32" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O4" s="16" t="s">
         <v>17</v>
@@ -6100,22 +5765,24 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="36" t="s">
-        <v>591</v>
+        <v>563</v>
       </c>
       <c r="F5" s="18">
         <v>3</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="34" t="s">
+        <v>511</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="34" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="23"/>
       <c r="N5" s="32" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="O5" s="16"/>
       <c r="P5" s="6">
@@ -6137,22 +5804,24 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="36" t="s">
-        <v>592</v>
+        <v>564</v>
       </c>
       <c r="F6" s="18">
         <v>4</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="34" t="s">
+        <v>512</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="34" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="23"/>
       <c r="N6" s="32" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="O6" s="16"/>
       <c r="P6" s="6">
@@ -6174,24 +5843,26 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="36" t="s">
-        <v>593</v>
+        <v>565</v>
       </c>
       <c r="F7" s="18">
         <v>5</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="34" t="s">
+        <v>513</v>
+      </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="49" t="s">
-        <v>618</v>
+      <c r="J7" s="48" t="s">
+        <v>590</v>
       </c>
       <c r="K7" s="34" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="23"/>
       <c r="N7" s="33" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O7" s="16"/>
       <c r="P7" s="6">
@@ -6213,24 +5884,26 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="36" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="F8" s="18">
         <v>6</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="34" t="s">
+        <v>438</v>
+      </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="45" t="s">
-        <v>619</v>
+      <c r="J8" s="44" t="s">
+        <v>591</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="23"/>
       <c r="N8" s="31" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O8" s="16"/>
       <c r="P8" s="6">
@@ -6252,24 +5925,26 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="36" t="s">
-        <v>595</v>
+        <v>567</v>
       </c>
       <c r="F9" s="18">
         <v>7</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="34" t="s">
+        <v>515</v>
+      </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="46" t="s">
-        <v>620</v>
+      <c r="J9" s="45" t="s">
+        <v>592</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="23"/>
       <c r="N9" s="33" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O9" s="16"/>
       <c r="P9" s="6">
@@ -6291,24 +5966,26 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="36" t="s">
-        <v>596</v>
+        <v>568</v>
       </c>
       <c r="F10" s="18">
         <v>8</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="34" t="s">
+        <v>516</v>
+      </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="45" t="s">
-        <v>621</v>
+      <c r="J10" s="44" t="s">
+        <v>593</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="23"/>
       <c r="N10" s="31" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O10" s="16"/>
       <c r="P10" s="6">
@@ -6330,24 +6007,26 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="36" t="s">
-        <v>597</v>
+        <v>569</v>
       </c>
       <c r="F11" s="18">
         <v>9</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="34" t="s">
+        <v>517</v>
+      </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="47" t="s">
-        <v>622</v>
+      <c r="J11" s="46" t="s">
+        <v>594</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="23"/>
       <c r="N11" s="32" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="O11" s="16"/>
       <c r="P11" s="6">
@@ -6369,24 +6048,26 @@
       <c r="C12" s="6"/>
       <c r="D12" s="26"/>
       <c r="E12" s="36" t="s">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="F12" s="18">
         <v>10</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="34" t="s">
+        <v>518</v>
+      </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="49" t="s">
-        <v>623</v>
+      <c r="J12" s="48" t="s">
+        <v>595</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="23"/>
       <c r="N12" s="33" t="s">
-        <v>484</v>
+        <v>657</v>
       </c>
       <c r="O12" s="24"/>
       <c r="P12" s="6">
@@ -6408,27 +6089,29 @@
       <c r="C13" s="6"/>
       <c r="D13" s="28"/>
       <c r="E13" s="36" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="F13" s="18">
         <v>11</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="34" t="s">
+        <v>519</v>
+      </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="45" t="s">
-        <v>624</v>
+      <c r="J13" s="44" t="s">
+        <v>596</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="23"/>
       <c r="N13" s="31" t="s">
-        <v>485</v>
-      </c>
-      <c r="O13" s="53" t="s">
-        <v>374</v>
+        <v>482</v>
+      </c>
+      <c r="O13" s="52" t="s">
+        <v>658</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="0"/>
@@ -6449,26 +6132,28 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="36" t="s">
-        <v>600</v>
+        <v>572</v>
       </c>
       <c r="F14" s="18">
         <v>12</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="34" t="s">
+        <v>520</v>
+      </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="46" t="s">
-        <v>625</v>
+      <c r="J14" s="45" t="s">
+        <v>597</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="23"/>
       <c r="N14" s="33" t="s">
-        <v>486</v>
-      </c>
-      <c r="O14" s="54"/>
+        <v>483</v>
+      </c>
+      <c r="O14" s="53"/>
       <c r="P14" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -6488,26 +6173,28 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="36" t="s">
-        <v>601</v>
+        <v>573</v>
       </c>
       <c r="F15" s="18">
         <v>13</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="35" t="s">
+        <v>659</v>
+      </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="45" t="s">
-        <v>626</v>
+      <c r="J15" s="44" t="s">
+        <v>598</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="23"/>
       <c r="N15" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="O15" s="54"/>
+        <v>484</v>
+      </c>
+      <c r="O15" s="53"/>
       <c r="P15" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -6527,26 +6214,25 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="36" t="s">
-        <v>602</v>
+        <v>574</v>
       </c>
       <c r="F16" s="18">
         <v>14</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="47" t="s">
-        <v>627</v>
+      <c r="J16" s="46" t="s">
+        <v>599</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="23"/>
       <c r="N16" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="O16" s="55"/>
+        <v>485</v>
+      </c>
+      <c r="O16" s="54"/>
       <c r="P16" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -6566,24 +6252,26 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="36" t="s">
-        <v>603</v>
+        <v>575</v>
       </c>
       <c r="F17" s="18">
         <v>15</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="35" t="s">
+        <v>660</v>
+      </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="50" t="s">
-        <v>628</v>
+      <c r="J17" s="49" t="s">
+        <v>600</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="23"/>
       <c r="N17" s="31" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="6">
@@ -6605,7 +6293,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="36" t="s">
-        <v>604</v>
+        <v>576</v>
       </c>
       <c r="F18" s="18">
         <v>16</v>
@@ -6613,16 +6301,16 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="47" t="s">
-        <v>629</v>
+      <c r="J18" s="46" t="s">
+        <v>601</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="23"/>
       <c r="N18" s="32" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="O18" s="16"/>
       <c r="P18" s="6">
@@ -6642,30 +6330,30 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="36" t="s">
-        <v>605</v>
+        <v>577</v>
       </c>
       <c r="F19" s="18">
         <v>17</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>665</v>
+        <v>637</v>
       </c>
       <c r="I19" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="47" t="s">
-        <v>630</v>
+      <c r="J19" s="46" t="s">
+        <v>602</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="23"/>
       <c r="N19" s="32" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="O19" s="16"/>
       <c r="P19" s="6">
@@ -6683,19 +6371,19 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="F20" s="18">
         <v>18</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H20" s="10">
         <v>1</v>
@@ -6703,16 +6391,16 @@
       <c r="I20" s="10">
         <v>1</v>
       </c>
-      <c r="J20" s="47" t="s">
-        <v>631</v>
+      <c r="J20" s="46" t="s">
+        <v>603</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="23"/>
       <c r="N20" s="32" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="6">
@@ -6730,19 +6418,19 @@
         <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D21" s="3">
         <v>2</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="F21" s="18">
         <v>19</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H21" s="10">
         <v>2</v>
@@ -6750,16 +6438,16 @@
       <c r="I21" s="10">
         <v>2</v>
       </c>
-      <c r="J21" s="47" t="s">
-        <v>632</v>
+      <c r="J21" s="46" t="s">
+        <v>604</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="23"/>
       <c r="N21" s="33" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="6">
@@ -6777,19 +6465,19 @@
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>608</v>
+        <v>580</v>
       </c>
       <c r="F22" s="18">
         <v>20</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H22" s="10">
         <v>3</v>
@@ -6797,16 +6485,16 @@
       <c r="I22" s="10">
         <v>3</v>
       </c>
-      <c r="J22" s="50" t="s">
-        <v>633</v>
+      <c r="J22" s="49" t="s">
+        <v>605</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="23"/>
       <c r="N22" s="31" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="6">
@@ -6824,19 +6512,19 @@
         <v>31</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D23" s="3">
         <v>4</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>672</v>
+        <v>644</v>
       </c>
       <c r="F23" s="18">
         <v>21</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H23" s="10">
         <v>4</v>
@@ -6844,16 +6532,16 @@
       <c r="I23" s="10">
         <v>4</v>
       </c>
-      <c r="J23" s="47" t="s">
-        <v>634</v>
+      <c r="J23" s="46" t="s">
+        <v>606</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="23"/>
       <c r="N23" s="32" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="6">
@@ -6861,7 +6549,7 @@
         <v>56</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>680</v>
+        <v>652</v>
       </c>
       <c r="R23" s="6" t="s">
         <v>367</v>
@@ -6873,36 +6561,36 @@
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D24" s="3">
         <v>5</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="F24" s="18">
         <v>22</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>666</v>
+        <v>638</v>
       </c>
       <c r="I24" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="47" t="s">
-        <v>635</v>
+      <c r="J24" s="46" t="s">
+        <v>607</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="23"/>
       <c r="N24" s="32" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="O24" s="40"/>
       <c r="P24" s="6">
@@ -6910,7 +6598,7 @@
         <v>57</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>676</v>
+        <v>648</v>
       </c>
       <c r="R24" s="6" t="s">
         <v>347</v>
@@ -6922,19 +6610,19 @@
         <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D25" s="3">
         <v>6</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="F25" s="18">
         <v>23</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H25" s="10">
         <v>5</v>
@@ -6942,16 +6630,16 @@
       <c r="I25" s="10">
         <v>5</v>
       </c>
-      <c r="J25" s="47" t="s">
-        <v>636</v>
+      <c r="J25" s="46" t="s">
+        <v>608</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="23"/>
       <c r="N25" s="32" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="6">
@@ -6971,19 +6659,19 @@
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D26" s="3">
         <v>7</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>610</v>
+        <v>582</v>
       </c>
       <c r="F26" s="18">
         <v>24</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H26" s="10">
         <v>6</v>
@@ -6991,16 +6679,16 @@
       <c r="I26" s="10">
         <v>6</v>
       </c>
-      <c r="J26" s="47" t="s">
-        <v>678</v>
+      <c r="J26" s="46" t="s">
+        <v>650</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="23"/>
       <c r="N26" s="33" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="6">
@@ -7020,19 +6708,19 @@
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D27" s="3">
         <v>8</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>611</v>
+        <v>583</v>
       </c>
       <c r="F27" s="18">
         <v>25</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H27" s="10">
         <v>7</v>
@@ -7040,18 +6728,18 @@
       <c r="I27" s="10">
         <v>7</v>
       </c>
-      <c r="J27" s="47" t="s">
-        <v>679</v>
+      <c r="J27" s="46" t="s">
+        <v>651</v>
       </c>
       <c r="K27" s="42" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="L27" s="29"/>
       <c r="M27" s="42" t="s">
-        <v>645</v>
+        <v>617</v>
       </c>
       <c r="N27" s="31" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="6">
@@ -7071,19 +6759,19 @@
         <v>42</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D28" s="3">
         <v>9</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="F28" s="18">
         <v>26</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H28" s="10">
         <v>8</v>
@@ -7091,18 +6779,18 @@
       <c r="I28" s="10">
         <v>8</v>
       </c>
-      <c r="J28" s="47" t="s">
-        <v>643</v>
+      <c r="J28" s="46" t="s">
+        <v>615</v>
       </c>
       <c r="K28" s="42" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="L28" s="29"/>
       <c r="M28" s="42" t="s">
-        <v>646</v>
+        <v>618</v>
       </c>
       <c r="N28" s="32" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="6">
@@ -7122,38 +6810,38 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D29" s="3">
         <v>10</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="F29" s="18">
         <v>27</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>667</v>
+        <v>639</v>
       </c>
       <c r="I29" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J29" s="47" t="s">
-        <v>637</v>
+      <c r="J29" s="46" t="s">
+        <v>609</v>
       </c>
       <c r="K29" s="42" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L29" s="29"/>
       <c r="M29" s="42" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="N29" s="32" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="6">
@@ -7173,19 +6861,19 @@
         <v>46</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D30" s="3">
         <v>11</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>614</v>
+        <v>586</v>
       </c>
       <c r="F30" s="18">
         <v>28</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H30" s="10">
         <v>9</v>
@@ -7193,18 +6881,18 @@
       <c r="I30" s="10">
         <v>9</v>
       </c>
-      <c r="J30" s="47" t="s">
-        <v>638</v>
+      <c r="J30" s="46" t="s">
+        <v>610</v>
       </c>
       <c r="K30" s="42" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L30" s="29"/>
       <c r="M30" s="42" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="N30" s="32" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="6">
@@ -7224,19 +6912,19 @@
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D31" s="3">
         <v>12</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>615</v>
+        <v>587</v>
       </c>
       <c r="F31" s="18">
         <v>29</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H31" s="10">
         <v>10</v>
@@ -7244,18 +6932,18 @@
       <c r="I31" s="10">
         <v>10</v>
       </c>
-      <c r="J31" s="47" t="s">
-        <v>639</v>
+      <c r="J31" s="46" t="s">
+        <v>611</v>
       </c>
       <c r="K31" s="42" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="L31" s="29"/>
       <c r="M31" s="42" t="s">
-        <v>652</v>
+        <v>624</v>
       </c>
       <c r="N31" s="33" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="6">
@@ -7275,19 +6963,19 @@
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D32" s="3">
         <v>13</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>616</v>
+        <v>588</v>
       </c>
       <c r="F32" s="18">
         <v>30</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H32" s="10">
         <v>11</v>
@@ -7295,18 +6983,18 @@
       <c r="I32" s="10">
         <v>11</v>
       </c>
-      <c r="J32" s="51" t="s">
-        <v>640</v>
+      <c r="J32" s="50" t="s">
+        <v>612</v>
       </c>
       <c r="K32" s="42" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L32" s="29"/>
       <c r="M32" s="42" t="s">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="N32" s="31" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="6">
@@ -7326,19 +7014,19 @@
         <v>52</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D33" s="3">
         <v>14</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>617</v>
+        <v>589</v>
       </c>
       <c r="F33" s="18">
         <v>31</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H33" s="10">
         <v>12</v>
@@ -7346,18 +7034,18 @@
       <c r="I33" s="10">
         <v>12</v>
       </c>
-      <c r="J33" s="51" t="s">
-        <v>641</v>
+      <c r="J33" s="50" t="s">
+        <v>613</v>
       </c>
       <c r="K33" s="42" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="L33" s="29"/>
       <c r="M33" s="42" t="s">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="N33" s="32" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="6">
@@ -7377,38 +7065,38 @@
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D34" s="3">
         <v>15</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F34" s="18">
         <v>1</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>668</v>
+        <v>640</v>
       </c>
       <c r="I34" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J34" s="51" t="s">
-        <v>642</v>
+      <c r="J34" s="50" t="s">
+        <v>614</v>
       </c>
       <c r="K34" s="42" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="L34" s="29"/>
       <c r="M34" s="42" t="s">
-        <v>654</v>
+        <v>626</v>
       </c>
       <c r="N34" s="32" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="6">
@@ -7428,19 +7116,19 @@
         <v>56</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D35" s="3">
         <v>16</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F35" s="18">
         <v>2</v>
       </c>
       <c r="G35" s="38" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H35" s="10">
         <v>13</v>
@@ -7449,17 +7137,17 @@
         <v>13</v>
       </c>
       <c r="J35" s="35" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
       <c r="K35" s="42" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="L35" s="29"/>
       <c r="M35" s="42" t="s">
-        <v>655</v>
+        <v>627</v>
       </c>
       <c r="N35" s="32" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="6">
@@ -7479,19 +7167,19 @@
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D36" s="3">
         <v>17</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F36" s="18">
         <v>3</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H36" s="10">
         <v>14</v>
@@ -7501,16 +7189,16 @@
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="42" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="L36" s="42" t="s">
-        <v>657</v>
+        <v>629</v>
       </c>
       <c r="M36" s="42" t="s">
-        <v>656</v>
+        <v>628</v>
       </c>
       <c r="N36" s="33" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="6">
@@ -7530,19 +7218,19 @@
         <v>60</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D37" s="3">
         <v>18</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F37" s="18">
         <v>4</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H37" s="10">
         <v>15</v>
@@ -7552,14 +7240,14 @@
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="42" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="L37" s="29"/>
       <c r="M37" s="42" t="s">
-        <v>675</v>
+        <v>647</v>
       </c>
       <c r="N37" s="31" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="6">
@@ -7579,36 +7267,36 @@
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D38" s="3">
         <v>19</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F38" s="18">
         <v>5</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>669</v>
+        <v>641</v>
       </c>
       <c r="I38" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="42" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="L38" s="29"/>
       <c r="M38" s="42" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="N38" s="33" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="6">
@@ -7628,19 +7316,19 @@
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="3" t="s">
-        <v>677</v>
+        <v>649</v>
       </c>
       <c r="D39" s="3">
         <v>20</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F39" s="18">
         <v>6</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>674</v>
+        <v>646</v>
       </c>
       <c r="H39" s="10">
         <v>16</v>
@@ -7650,14 +7338,14 @@
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="42" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="L39" s="29"/>
       <c r="M39" s="42" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="N39" s="31" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="O39" s="40"/>
       <c r="P39" s="6">
@@ -7665,7 +7353,7 @@
         <v>72</v>
       </c>
       <c r="Q39" s="34" t="s">
-        <v>661</v>
+        <v>633</v>
       </c>
       <c r="R39" s="6" t="s">
         <v>362</v>
@@ -7677,19 +7365,19 @@
         <v>65</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
       <c r="D40" s="3">
         <v>21</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F40" s="18">
         <v>7</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
       <c r="H40" s="10">
         <v>17</v>
@@ -7699,17 +7387,17 @@
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="42" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="L40" s="29"/>
       <c r="M40" s="42" t="s">
-        <v>650</v>
+        <v>622</v>
       </c>
       <c r="N40" s="33" t="s">
-        <v>588</v>
-      </c>
-      <c r="O40" s="41" t="s">
-        <v>513</v>
+        <v>560</v>
+      </c>
+      <c r="O40" s="35" t="s">
+        <v>654</v>
       </c>
       <c r="P40" s="6">
         <f t="shared" si="0"/>
@@ -7728,19 +7416,19 @@
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D41" s="3">
         <v>22</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F41" s="18">
         <v>8</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H41" s="10">
         <v>18</v>
@@ -7750,17 +7438,14 @@
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="42" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="L41" s="29"/>
       <c r="M41" s="42" t="s">
-        <v>651</v>
-      </c>
-      <c r="N41" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="O41" s="34" t="s">
-        <v>512</v>
+        <v>623</v>
+      </c>
+      <c r="O41" s="35" t="s">
+        <v>653</v>
       </c>
       <c r="P41" s="6">
         <f t="shared" si="0"/>
@@ -7779,19 +7464,19 @@
         <v>67</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D42" s="3">
         <v>23</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F42" s="18">
         <v>9</v>
       </c>
       <c r="G42" s="38" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H42" s="10">
         <v>19</v>
@@ -7801,23 +7486,21 @@
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="34" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="L42" s="35" t="s">
         <v>368</v>
       </c>
       <c r="M42" s="35" t="s">
-        <v>375</v>
-      </c>
-      <c r="N42" s="34"/>
-      <c r="O42" s="35" t="s">
-        <v>681</v>
+        <v>374</v>
+      </c>
+      <c r="O42" s="41" t="s">
+        <v>655</v>
       </c>
       <c r="P42" s="6">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="Q42" s="34"/>
       <c r="R42" s="6" t="s">
         <v>365</v>
       </c>
@@ -7828,35 +7511,34 @@
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D43" s="3">
         <v>24</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F43" s="18">
         <v>10</v>
       </c>
       <c r="G43" s="37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>670</v>
+        <v>642</v>
       </c>
       <c r="I43" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="34" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="35" t="s">
-        <v>682</v>
+      <c r="O43" s="34" t="s">
+        <v>656</v>
       </c>
       <c r="P43" s="6">
         <f t="shared" si="0"/>
@@ -7873,19 +7555,19 @@
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D44" s="3">
         <v>25</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F44" s="18">
         <v>11</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H44" s="10">
         <v>20</v>
@@ -7895,7 +7577,7 @@
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="34" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
@@ -7914,19 +7596,19 @@
         <v>71</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D45" s="3">
         <v>26</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F45" s="18">
         <v>12</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H45" s="10">
         <v>21</v>
@@ -7936,7 +7618,7 @@
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="34" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
@@ -7955,19 +7637,19 @@
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D46" s="3">
         <v>27</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F46" s="18">
         <v>13</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H46" s="10">
         <v>22</v>
@@ -7977,7 +7659,7 @@
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="34" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
@@ -7996,19 +7678,19 @@
         <v>75</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D47" s="3">
         <v>28</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F47" s="18">
         <v>14</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H47" s="10">
         <v>23</v>
@@ -8018,7 +7700,7 @@
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="34" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
@@ -8037,19 +7719,19 @@
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D48" s="3">
         <v>29</v>
       </c>
       <c r="E48" s="36" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F48" s="18">
         <v>15</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H48" s="10">
         <v>24</v>
@@ -8059,7 +7741,7 @@
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="34" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
@@ -8078,29 +7760,29 @@
         <v>79</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D49" s="3">
         <v>30</v>
       </c>
       <c r="E49" s="36" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F49" s="18">
         <v>16</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>671</v>
+        <v>643</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>368</v>
+        <v>661</v>
       </c>
       <c r="I49" s="35" t="s">
         <v>368</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="34" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
@@ -8119,23 +7801,25 @@
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D50" s="3">
         <v>31</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F50" s="18">
         <v>17</v>
       </c>
       <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="H50" s="35" t="s">
+        <v>662</v>
+      </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="34" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
@@ -8154,24 +7838,24 @@
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D51" s="3">
         <v>32</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F51" s="18">
         <v>18</v>
       </c>
       <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="H51" s="34" t="s">
+        <v>521</v>
+      </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="34" t="s">
-        <v>562</v>
-      </c>
+      <c r="K51" s="34"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -8189,24 +7873,24 @@
         <v>85</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D52" s="3">
         <v>33</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F52" s="18">
         <v>19</v>
       </c>
       <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="H52" s="34" t="s">
+        <v>522</v>
+      </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="34" t="s">
-        <v>563</v>
-      </c>
+      <c r="K52" s="34"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
@@ -8224,24 +7908,24 @@
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D53" s="3">
         <v>34</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>673</v>
+        <v>645</v>
       </c>
       <c r="F53" s="18">
         <v>20</v>
       </c>
       <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="H53" s="34" t="s">
+        <v>523</v>
+      </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="34" t="s">
-        <v>564</v>
-      </c>
+      <c r="K53" s="34"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
@@ -8259,24 +7943,24 @@
         <v>88</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D54" s="3">
         <v>35</v>
       </c>
       <c r="E54" s="36" t="s">
-        <v>586</v>
+        <v>558</v>
       </c>
       <c r="F54" s="18">
         <v>21</v>
       </c>
       <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
+      <c r="H54" s="34" t="s">
+        <v>524</v>
+      </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
-      <c r="K54" s="34" t="s">
-        <v>565</v>
-      </c>
+      <c r="K54" s="34"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
@@ -8294,24 +7978,24 @@
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D55" s="3">
         <v>36</v>
       </c>
       <c r="E55" s="36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F55" s="18">
         <v>22</v>
       </c>
       <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="H55" s="34" t="s">
+        <v>525</v>
+      </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="34" t="s">
-        <v>566</v>
-      </c>
+      <c r="K55" s="34"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -8329,24 +8013,24 @@
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D56" s="3">
         <v>37</v>
       </c>
       <c r="E56" s="36" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F56" s="18">
         <v>23</v>
       </c>
       <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="H56" s="34" t="s">
+        <v>526</v>
+      </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="34" t="s">
-        <v>567</v>
-      </c>
+      <c r="K56" s="34"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
@@ -8364,22 +8048,22 @@
         <v>91</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="36" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F57" s="18">
         <v>24</v>
       </c>
       <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
+      <c r="H57" s="34" t="s">
+        <v>527</v>
+      </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
-      <c r="K57" s="34" t="s">
-        <v>568</v>
-      </c>
+      <c r="K57" s="34"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
@@ -8399,18 +8083,18 @@
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="36" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F58" s="18">
         <v>25</v>
       </c>
       <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
+      <c r="H58" s="34" t="s">
+        <v>528</v>
+      </c>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
-      <c r="K58" s="34" t="s">
-        <v>569</v>
-      </c>
+      <c r="K58" s="34"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
@@ -8430,18 +8114,18 @@
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="36" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F59" s="18">
         <v>26</v>
       </c>
       <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
+      <c r="H59" s="34" t="s">
+        <v>529</v>
+      </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
-      <c r="K59" s="34" t="s">
-        <v>570</v>
-      </c>
+      <c r="K59" s="34"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
@@ -8461,18 +8145,18 @@
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="36" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F60" s="18">
         <v>27</v>
       </c>
       <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+      <c r="H60" s="34" t="s">
+        <v>530</v>
+      </c>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
-      <c r="K60" s="34" t="s">
-        <v>571</v>
-      </c>
+      <c r="K60" s="34"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
@@ -8492,18 +8176,18 @@
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F61" s="18">
         <v>28</v>
       </c>
       <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="H61" s="34" t="s">
+        <v>531</v>
+      </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
-      <c r="K61" s="34" t="s">
-        <v>572</v>
-      </c>
+      <c r="K61" s="34"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
@@ -8523,18 +8207,18 @@
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="36" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F62" s="18">
         <v>29</v>
       </c>
       <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="H62" s="34" t="s">
+        <v>532</v>
+      </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
-      <c r="K62" s="34" t="s">
-        <v>573</v>
-      </c>
+      <c r="K62" s="34"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -8554,18 +8238,18 @@
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="36" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F63" s="18">
         <v>30</v>
       </c>
       <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
+      <c r="H63" s="42" t="s">
+        <v>533</v>
+      </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
-      <c r="K63" s="34" t="s">
-        <v>574</v>
-      </c>
+      <c r="K63" s="34"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
@@ -8585,18 +8269,18 @@
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="36" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F64" s="18">
         <v>31</v>
       </c>
       <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
+      <c r="H64" s="42" t="s">
+        <v>534</v>
+      </c>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
-      <c r="K64" s="34" t="s">
-        <v>575</v>
-      </c>
+      <c r="K64" s="34"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
@@ -8616,18 +8300,18 @@
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="36" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F65" s="18">
         <v>32</v>
       </c>
       <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
+      <c r="H65" s="42" t="s">
+        <v>535</v>
+      </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
-      <c r="K65" s="34" t="s">
-        <v>575</v>
-      </c>
+      <c r="K65" s="34"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
@@ -8647,18 +8331,18 @@
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F66" s="18">
         <v>33</v>
       </c>
       <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
+      <c r="H66" s="42" t="s">
+        <v>536</v>
+      </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
-      <c r="K66" s="34" t="s">
-        <v>576</v>
-      </c>
+      <c r="K66" s="34"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
@@ -8678,18 +8362,18 @@
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F67" s="18">
         <v>34</v>
       </c>
       <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
+      <c r="H67" s="42" t="s">
+        <v>537</v>
+      </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
-      <c r="K67" s="34" t="s">
-        <v>577</v>
-      </c>
+      <c r="K67" s="34"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
@@ -8709,18 +8393,18 @@
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F68" s="18">
         <v>35</v>
       </c>
       <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
+      <c r="H68" s="42" t="s">
+        <v>538</v>
+      </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
-      <c r="K68" s="34" t="s">
-        <v>578</v>
-      </c>
+      <c r="K68" s="34"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
@@ -8742,12 +8426,12 @@
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
+      <c r="H69" s="42" t="s">
+        <v>539</v>
+      </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
-      <c r="K69" s="34" t="s">
-        <v>579</v>
-      </c>
+      <c r="K69" s="34"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
@@ -8767,18 +8451,18 @@
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
+      <c r="H70" s="42" t="s">
+        <v>540</v>
+      </c>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
-      <c r="K70" s="34" t="s">
-        <v>580</v>
-      </c>
+      <c r="K70" s="34"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
@@ -8800,12 +8484,12 @@
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
+      <c r="H71" s="42" t="s">
+        <v>541</v>
+      </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
-      <c r="K71" s="34" t="s">
-        <v>581</v>
-      </c>
+      <c r="K71" s="34"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -8827,12 +8511,12 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
+      <c r="H72" s="42" t="s">
+        <v>542</v>
+      </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
-      <c r="K72" s="34" t="s">
-        <v>582</v>
-      </c>
+      <c r="K72" s="34"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
@@ -8854,12 +8538,12 @@
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
+      <c r="H73" s="42" t="s">
+        <v>543</v>
+      </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
-      <c r="K73" s="34" t="s">
-        <v>583</v>
-      </c>
+      <c r="K73" s="34"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
@@ -8881,12 +8565,12 @@
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
+      <c r="H74" s="42" t="s">
+        <v>544</v>
+      </c>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
-      <c r="K74" s="34" t="s">
-        <v>584</v>
-      </c>
+      <c r="K74" s="34"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
@@ -8908,7 +8592,9 @@
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
+      <c r="H75" s="42" t="s">
+        <v>545</v>
+      </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
@@ -8933,7 +8619,9 @@
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
+      <c r="H76" s="42" t="s">
+        <v>546</v>
+      </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
@@ -8958,7 +8646,9 @@
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
+      <c r="H77" s="42" t="s">
+        <v>547</v>
+      </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
@@ -8983,7 +8673,9 @@
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
+      <c r="H78" s="34" t="s">
+        <v>548</v>
+      </c>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
@@ -9008,7 +8700,9 @@
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
+      <c r="H79" s="34" t="s">
+        <v>549</v>
+      </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
@@ -9033,7 +8727,9 @@
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
+      <c r="H80" s="34" t="s">
+        <v>550</v>
+      </c>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
@@ -9058,7 +8754,9 @@
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
+      <c r="H81" s="34" t="s">
+        <v>551</v>
+      </c>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
@@ -9083,7 +8781,9 @@
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
+      <c r="H82" s="34" t="s">
+        <v>552</v>
+      </c>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
@@ -9108,7 +8808,9 @@
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
+      <c r="H83" s="34" t="s">
+        <v>553</v>
+      </c>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
@@ -9133,7 +8835,9 @@
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
+      <c r="H84" s="34" t="s">
+        <v>554</v>
+      </c>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
@@ -9158,7 +8862,9 @@
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
+      <c r="H85" s="34" t="s">
+        <v>555</v>
+      </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
@@ -9183,7 +8889,9 @@
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
+      <c r="H86" s="34" t="s">
+        <v>556</v>
+      </c>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
@@ -10044,7 +9752,7 @@
       <c r="N24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="56" t="s">
+      <c r="O24" s="55" t="s">
         <v>37</v>
       </c>
       <c r="P24" s="16"/>
@@ -10081,7 +9789,7 @@
       <c r="N25" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O25" s="54"/>
+      <c r="O25" s="53"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
@@ -10116,7 +9824,7 @@
       <c r="N26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O26" s="54"/>
+      <c r="O26" s="53"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
@@ -10151,7 +9859,7 @@
       <c r="N27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O27" s="55"/>
+      <c r="O27" s="54"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
@@ -13168,11 +12876,11 @@
       <c r="C20" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="9" t="s">
         <v>186</v>
       </c>
@@ -13222,11 +12930,11 @@
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -13282,20 +12990,20 @@
       <c r="A25" s="6">
         <v>8</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -13484,20 +13192,20 @@
       <c r="A35" s="6">
         <v>18</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
@@ -15101,7 +14809,7 @@
     </row>
     <row r="11" spans="1:21" ht="12.75" customHeight="1">
       <c r="A11" s="19"/>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -15142,7 +14850,7 @@
     </row>
     <row r="12" spans="1:21" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="59"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="19" t="s">
         <v>220</v>
       </c>
@@ -15181,7 +14889,7 @@
     </row>
     <row r="13" spans="1:21" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="59"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="19" t="s">
         <v>223</v>
       </c>
@@ -15220,7 +14928,7 @@
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" s="59"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="19" t="s">
         <v>225</v>
       </c>
@@ -15259,7 +14967,7 @@
     </row>
     <row r="15" spans="1:21" ht="12.75" customHeight="1">
       <c r="A15" s="19"/>
-      <c r="B15" s="59"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="19" t="s">
         <v>228</v>
       </c>

--- a/MPC82/PitchTable.xlsx
+++ b/MPC82/PitchTable.xlsx
@@ -4644,20 +4644,52 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>風鈴方向 (P57)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>風鈴輸入 (P33)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crash  38 (None)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ride </t>
+    <r>
+      <t xml:space="preserve">Open Hi-Hat 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(P14)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>止音，依據音符長度來定義</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>單音</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>和弦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上刷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下刷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>風鈴輸入 38 (P33)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>風鈴方向 39 (P57)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Crash </t>
     </r>
     <r>
       <rPr>
@@ -4667,6 +4699,31 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
+      <t xml:space="preserve">止 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>38-&gt;None</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ride </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
       <t>止</t>
     </r>
     <r>
@@ -4676,44 +4733,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 39 (None)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Open Hi-Hat 10 </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(P14)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>止音，依據音符長度來定義</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>單音</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>和弦</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>上刷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下刷</t>
+      <t xml:space="preserve"> 39-&gt;None</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5551,10 +5572,10 @@
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H60" sqref="H60"/>
+      <selection pane="bottomRight" activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -6067,7 +6088,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="23"/>
       <c r="N12" s="33" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="O12" s="24"/>
       <c r="P12" s="6">
@@ -6111,7 +6132,7 @@
         <v>482</v>
       </c>
       <c r="O13" s="52" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="0"/>
@@ -6180,14 +6201,11 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="35" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="44" t="s">
         <v>598</v>
-      </c>
-      <c r="K15" s="34" t="s">
-        <v>521</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="23"/>
@@ -6223,9 +6241,6 @@
       <c r="I16" s="6"/>
       <c r="J16" s="46" t="s">
         <v>599</v>
-      </c>
-      <c r="K16" s="34" t="s">
-        <v>522</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="23"/>
@@ -6259,14 +6274,11 @@
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="35" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="49" t="s">
         <v>600</v>
-      </c>
-      <c r="K17" s="34" t="s">
-        <v>523</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="23"/>
@@ -6304,9 +6316,6 @@
       <c r="J18" s="46" t="s">
         <v>601</v>
       </c>
-      <c r="K18" s="34" t="s">
-        <v>524</v>
-      </c>
       <c r="L18" s="6"/>
       <c r="M18" s="23"/>
       <c r="N18" s="32" t="s">
@@ -6347,9 +6356,6 @@
       <c r="J19" s="46" t="s">
         <v>602</v>
       </c>
-      <c r="K19" s="34" t="s">
-        <v>525</v>
-      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="23"/>
       <c r="N19" s="32" t="s">
@@ -6394,9 +6400,6 @@
       <c r="J20" s="46" t="s">
         <v>603</v>
       </c>
-      <c r="K20" s="34" t="s">
-        <v>526</v>
-      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="23"/>
       <c r="N20" s="32" t="s">
@@ -6441,9 +6444,6 @@
       <c r="J21" s="46" t="s">
         <v>604</v>
       </c>
-      <c r="K21" s="34" t="s">
-        <v>527</v>
-      </c>
       <c r="L21" s="6"/>
       <c r="M21" s="23"/>
       <c r="N21" s="33" t="s">
@@ -6488,9 +6488,6 @@
       <c r="J22" s="49" t="s">
         <v>605</v>
       </c>
-      <c r="K22" s="34" t="s">
-        <v>528</v>
-      </c>
       <c r="L22" s="6"/>
       <c r="M22" s="23"/>
       <c r="N22" s="31" t="s">
@@ -6535,9 +6532,6 @@
       <c r="J23" s="46" t="s">
         <v>606</v>
       </c>
-      <c r="K23" s="34" t="s">
-        <v>529</v>
-      </c>
       <c r="L23" s="6"/>
       <c r="M23" s="23"/>
       <c r="N23" s="32" t="s">
@@ -6584,9 +6578,6 @@
       <c r="J24" s="46" t="s">
         <v>607</v>
       </c>
-      <c r="K24" s="34" t="s">
-        <v>530</v>
-      </c>
       <c r="L24" s="6"/>
       <c r="M24" s="23"/>
       <c r="N24" s="32" t="s">
@@ -6633,9 +6624,6 @@
       <c r="J25" s="46" t="s">
         <v>608</v>
       </c>
-      <c r="K25" s="34" t="s">
-        <v>531</v>
-      </c>
       <c r="L25" s="6"/>
       <c r="M25" s="23"/>
       <c r="N25" s="32" t="s">
@@ -6682,9 +6670,6 @@
       <c r="J26" s="46" t="s">
         <v>650</v>
       </c>
-      <c r="K26" s="34" t="s">
-        <v>532</v>
-      </c>
       <c r="L26" s="6"/>
       <c r="M26" s="23"/>
       <c r="N26" s="33" t="s">
@@ -6731,9 +6716,7 @@
       <c r="J27" s="46" t="s">
         <v>651</v>
       </c>
-      <c r="K27" s="42" t="s">
-        <v>533</v>
-      </c>
+      <c r="K27" s="42"/>
       <c r="L27" s="29"/>
       <c r="M27" s="42" t="s">
         <v>617</v>
@@ -6782,9 +6765,7 @@
       <c r="J28" s="46" t="s">
         <v>615</v>
       </c>
-      <c r="K28" s="42" t="s">
-        <v>534</v>
-      </c>
+      <c r="K28" s="42"/>
       <c r="L28" s="29"/>
       <c r="M28" s="42" t="s">
         <v>618</v>
@@ -6833,9 +6814,7 @@
       <c r="J29" s="46" t="s">
         <v>609</v>
       </c>
-      <c r="K29" s="42" t="s">
-        <v>535</v>
-      </c>
+      <c r="K29" s="42"/>
       <c r="L29" s="29"/>
       <c r="M29" s="42" t="s">
         <v>619</v>
@@ -6884,9 +6863,7 @@
       <c r="J30" s="46" t="s">
         <v>610</v>
       </c>
-      <c r="K30" s="42" t="s">
-        <v>536</v>
-      </c>
+      <c r="K30" s="42"/>
       <c r="L30" s="29"/>
       <c r="M30" s="42" t="s">
         <v>620</v>
@@ -6935,9 +6912,7 @@
       <c r="J31" s="46" t="s">
         <v>611</v>
       </c>
-      <c r="K31" s="42" t="s">
-        <v>537</v>
-      </c>
+      <c r="K31" s="42"/>
       <c r="L31" s="29"/>
       <c r="M31" s="42" t="s">
         <v>624</v>
@@ -6986,9 +6961,7 @@
       <c r="J32" s="50" t="s">
         <v>612</v>
       </c>
-      <c r="K32" s="42" t="s">
-        <v>538</v>
-      </c>
+      <c r="K32" s="42"/>
       <c r="L32" s="29"/>
       <c r="M32" s="42" t="s">
         <v>625</v>
@@ -7037,9 +7010,7 @@
       <c r="J33" s="50" t="s">
         <v>613</v>
       </c>
-      <c r="K33" s="42" t="s">
-        <v>539</v>
-      </c>
+      <c r="K33" s="42"/>
       <c r="L33" s="29"/>
       <c r="M33" s="42" t="s">
         <v>621</v>
@@ -7088,9 +7059,7 @@
       <c r="J34" s="50" t="s">
         <v>614</v>
       </c>
-      <c r="K34" s="42" t="s">
-        <v>540</v>
-      </c>
+      <c r="K34" s="42"/>
       <c r="L34" s="29"/>
       <c r="M34" s="42" t="s">
         <v>626</v>
@@ -7139,9 +7108,7 @@
       <c r="J35" s="35" t="s">
         <v>616</v>
       </c>
-      <c r="K35" s="42" t="s">
-        <v>541</v>
-      </c>
+      <c r="K35" s="42"/>
       <c r="L35" s="29"/>
       <c r="M35" s="42" t="s">
         <v>627</v>
@@ -7188,9 +7155,7 @@
         <v>14</v>
       </c>
       <c r="J36" s="6"/>
-      <c r="K36" s="42" t="s">
-        <v>542</v>
-      </c>
+      <c r="K36" s="42"/>
       <c r="L36" s="42" t="s">
         <v>629</v>
       </c>
@@ -7239,9 +7204,7 @@
         <v>15</v>
       </c>
       <c r="J37" s="6"/>
-      <c r="K37" s="42" t="s">
-        <v>543</v>
-      </c>
+      <c r="K37" s="42"/>
       <c r="L37" s="29"/>
       <c r="M37" s="42" t="s">
         <v>647</v>
@@ -7288,9 +7251,7 @@
         <v>23</v>
       </c>
       <c r="J38" s="6"/>
-      <c r="K38" s="42" t="s">
-        <v>544</v>
-      </c>
+      <c r="K38" s="42"/>
       <c r="L38" s="29"/>
       <c r="M38" s="42" t="s">
         <v>632</v>
@@ -7337,9 +7298,7 @@
         <v>16</v>
       </c>
       <c r="J39" s="6"/>
-      <c r="K39" s="42" t="s">
-        <v>545</v>
-      </c>
+      <c r="K39" s="42"/>
       <c r="L39" s="29"/>
       <c r="M39" s="42" t="s">
         <v>630</v>
@@ -7386,9 +7345,7 @@
         <v>17</v>
       </c>
       <c r="J40" s="6"/>
-      <c r="K40" s="42" t="s">
-        <v>546</v>
-      </c>
+      <c r="K40" s="42"/>
       <c r="L40" s="29"/>
       <c r="M40" s="42" t="s">
         <v>622</v>
@@ -7397,7 +7354,7 @@
         <v>560</v>
       </c>
       <c r="O40" s="35" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="P40" s="6">
         <f t="shared" si="0"/>
@@ -7437,15 +7394,13 @@
         <v>18</v>
       </c>
       <c r="J41" s="6"/>
-      <c r="K41" s="42" t="s">
-        <v>547</v>
-      </c>
+      <c r="K41" s="42"/>
       <c r="L41" s="29"/>
       <c r="M41" s="42" t="s">
         <v>623</v>
       </c>
       <c r="O41" s="35" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="P41" s="6">
         <f t="shared" si="0"/>
@@ -7485,9 +7440,7 @@
         <v>19</v>
       </c>
       <c r="J42" s="6"/>
-      <c r="K42" s="34" t="s">
-        <v>548</v>
-      </c>
+      <c r="K42" s="34"/>
       <c r="L42" s="35" t="s">
         <v>368</v>
       </c>
@@ -7495,7 +7448,7 @@
         <v>374</v>
       </c>
       <c r="O42" s="41" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="P42" s="6">
         <f t="shared" si="0"/>
@@ -7532,13 +7485,11 @@
         <v>23</v>
       </c>
       <c r="J43" s="6"/>
-      <c r="K43" s="34" t="s">
-        <v>549</v>
-      </c>
+      <c r="K43" s="34"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="O43" s="34" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="P43" s="6">
         <f t="shared" si="0"/>
@@ -7576,9 +7527,7 @@
         <v>20</v>
       </c>
       <c r="J44" s="6"/>
-      <c r="K44" s="34" t="s">
-        <v>550</v>
-      </c>
+      <c r="K44" s="34"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
@@ -7617,9 +7566,7 @@
         <v>21</v>
       </c>
       <c r="J45" s="6"/>
-      <c r="K45" s="34" t="s">
-        <v>551</v>
-      </c>
+      <c r="K45" s="34"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
@@ -7658,9 +7605,7 @@
         <v>22</v>
       </c>
       <c r="J46" s="6"/>
-      <c r="K46" s="34" t="s">
-        <v>552</v>
-      </c>
+      <c r="K46" s="34"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
@@ -7699,9 +7644,7 @@
         <v>23</v>
       </c>
       <c r="J47" s="6"/>
-      <c r="K47" s="34" t="s">
-        <v>553</v>
-      </c>
+      <c r="K47" s="34"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
@@ -7740,9 +7683,7 @@
         <v>24</v>
       </c>
       <c r="J48" s="6"/>
-      <c r="K48" s="34" t="s">
-        <v>554</v>
-      </c>
+      <c r="K48" s="34"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
@@ -7775,15 +7716,13 @@
         <v>643</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="I49" s="35" t="s">
         <v>368</v>
       </c>
       <c r="J49" s="6"/>
-      <c r="K49" s="34" t="s">
-        <v>555</v>
-      </c>
+      <c r="K49" s="34"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
@@ -7814,13 +7753,11 @@
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="35" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-      <c r="K50" s="34" t="s">
-        <v>556</v>
-      </c>
+      <c r="K50" s="34"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -7855,7 +7792,9 @@
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="34"/>
+      <c r="K51" s="34" t="s">
+        <v>521</v>
+      </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -7890,7 +7829,9 @@
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="34"/>
+      <c r="K52" s="34" t="s">
+        <v>522</v>
+      </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
@@ -7925,7 +7866,9 @@
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="34"/>
+      <c r="K53" s="34" t="s">
+        <v>523</v>
+      </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
@@ -7960,7 +7903,9 @@
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
-      <c r="K54" s="34"/>
+      <c r="K54" s="34" t="s">
+        <v>524</v>
+      </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
@@ -7995,7 +7940,9 @@
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="34"/>
+      <c r="K55" s="34" t="s">
+        <v>525</v>
+      </c>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -8030,7 +7977,9 @@
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="34"/>
+      <c r="K56" s="34" t="s">
+        <v>526</v>
+      </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
@@ -8063,7 +8012,9 @@
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
-      <c r="K57" s="34"/>
+      <c r="K57" s="34" t="s">
+        <v>527</v>
+      </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
@@ -8094,7 +8045,9 @@
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
-      <c r="K58" s="34"/>
+      <c r="K58" s="34" t="s">
+        <v>528</v>
+      </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
@@ -8125,7 +8078,9 @@
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
-      <c r="K59" s="34"/>
+      <c r="K59" s="34" t="s">
+        <v>529</v>
+      </c>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
@@ -8156,7 +8111,9 @@
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
-      <c r="K60" s="34"/>
+      <c r="K60" s="34" t="s">
+        <v>530</v>
+      </c>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
@@ -8187,7 +8144,9 @@
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
-      <c r="K61" s="34"/>
+      <c r="K61" s="34" t="s">
+        <v>531</v>
+      </c>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
@@ -8218,7 +8177,9 @@
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
-      <c r="K62" s="34"/>
+      <c r="K62" s="34" t="s">
+        <v>532</v>
+      </c>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -8244,12 +8205,14 @@
         <v>30</v>
       </c>
       <c r="G63" s="6"/>
-      <c r="H63" s="42" t="s">
+      <c r="H63" s="34" t="s">
         <v>533</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
-      <c r="K63" s="34"/>
+      <c r="K63" s="34" t="s">
+        <v>533</v>
+      </c>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
@@ -8275,12 +8238,14 @@
         <v>31</v>
       </c>
       <c r="G64" s="6"/>
-      <c r="H64" s="42" t="s">
+      <c r="H64" s="34" t="s">
         <v>534</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
-      <c r="K64" s="34"/>
+      <c r="K64" s="34" t="s">
+        <v>534</v>
+      </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
@@ -8306,12 +8271,14 @@
         <v>32</v>
       </c>
       <c r="G65" s="6"/>
-      <c r="H65" s="42" t="s">
+      <c r="H65" s="34" t="s">
         <v>535</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
-      <c r="K65" s="34"/>
+      <c r="K65" s="34" t="s">
+        <v>535</v>
+      </c>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
@@ -8337,12 +8304,14 @@
         <v>33</v>
       </c>
       <c r="G66" s="6"/>
-      <c r="H66" s="42" t="s">
+      <c r="H66" s="34" t="s">
         <v>536</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
-      <c r="K66" s="34"/>
+      <c r="K66" s="34" t="s">
+        <v>536</v>
+      </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
@@ -8368,12 +8337,14 @@
         <v>34</v>
       </c>
       <c r="G67" s="6"/>
-      <c r="H67" s="42" t="s">
+      <c r="H67" s="34" t="s">
         <v>537</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
-      <c r="K67" s="34"/>
+      <c r="K67" s="34" t="s">
+        <v>537</v>
+      </c>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
@@ -8399,12 +8370,14 @@
         <v>35</v>
       </c>
       <c r="G68" s="6"/>
-      <c r="H68" s="42" t="s">
+      <c r="H68" s="34" t="s">
         <v>538</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
-      <c r="K68" s="34"/>
+      <c r="K68" s="34" t="s">
+        <v>538</v>
+      </c>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
@@ -8426,12 +8399,14 @@
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="42" t="s">
+      <c r="H69" s="34" t="s">
         <v>539</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
-      <c r="K69" s="34"/>
+      <c r="K69" s="34" t="s">
+        <v>539</v>
+      </c>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
@@ -8457,12 +8432,14 @@
         <v>438</v>
       </c>
       <c r="G70" s="6"/>
-      <c r="H70" s="42" t="s">
+      <c r="H70" s="34" t="s">
         <v>540</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
-      <c r="K70" s="34"/>
+      <c r="K70" s="34" t="s">
+        <v>540</v>
+      </c>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
@@ -8484,12 +8461,14 @@
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="42" t="s">
+      <c r="H71" s="34" t="s">
         <v>541</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
-      <c r="K71" s="34"/>
+      <c r="K71" s="34" t="s">
+        <v>541</v>
+      </c>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -8511,12 +8490,14 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="42" t="s">
+      <c r="H72" s="34" t="s">
         <v>542</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
-      <c r="K72" s="34"/>
+      <c r="K72" s="34" t="s">
+        <v>542</v>
+      </c>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
@@ -8538,12 +8519,14 @@
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="42" t="s">
+      <c r="H73" s="34" t="s">
         <v>543</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
-      <c r="K73" s="34"/>
+      <c r="K73" s="34" t="s">
+        <v>543</v>
+      </c>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
@@ -8565,12 +8548,14 @@
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="42" t="s">
+      <c r="H74" s="34" t="s">
         <v>544</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
-      <c r="K74" s="34"/>
+      <c r="K74" s="34" t="s">
+        <v>544</v>
+      </c>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
@@ -8592,12 +8577,14 @@
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="42" t="s">
+      <c r="H75" s="34" t="s">
         <v>545</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
+      <c r="K75" s="34" t="s">
+        <v>545</v>
+      </c>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
@@ -8619,12 +8606,14 @@
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
-      <c r="H76" s="42" t="s">
+      <c r="H76" s="34" t="s">
         <v>546</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
+      <c r="K76" s="34" t="s">
+        <v>546</v>
+      </c>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
@@ -8646,12 +8635,14 @@
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="42" t="s">
+      <c r="H77" s="34" t="s">
         <v>547</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
+      <c r="K77" s="34" t="s">
+        <v>547</v>
+      </c>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
@@ -8678,7 +8669,9 @@
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
+      <c r="K78" s="34" t="s">
+        <v>548</v>
+      </c>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
@@ -8705,7 +8698,9 @@
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
+      <c r="K79" s="34" t="s">
+        <v>549</v>
+      </c>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
@@ -8732,7 +8727,9 @@
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
+      <c r="K80" s="34" t="s">
+        <v>550</v>
+      </c>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
@@ -8759,7 +8756,9 @@
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
+      <c r="K81" s="34" t="s">
+        <v>551</v>
+      </c>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
@@ -8786,7 +8785,9 @@
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
+      <c r="K82" s="34" t="s">
+        <v>552</v>
+      </c>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
@@ -8813,7 +8814,9 @@
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
+      <c r="K83" s="34" t="s">
+        <v>553</v>
+      </c>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
@@ -8840,7 +8843,9 @@
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
+      <c r="K84" s="34" t="s">
+        <v>554</v>
+      </c>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
@@ -8867,7 +8872,9 @@
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
+      <c r="K85" s="34" t="s">
+        <v>555</v>
+      </c>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
@@ -8894,7 +8901,9 @@
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
+      <c r="K86" s="34" t="s">
+        <v>556</v>
+      </c>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>

--- a/MPC82/PitchTable.xlsx
+++ b/MPC82/PitchTable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="480" windowWidth="18015" windowHeight="8325"/>
@@ -15,12 +15,12 @@
     <sheet name="廠商名錄" sheetId="6" r:id="rId6"/>
     <sheet name="工作表6" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="661">
   <si>
     <t>C調</t>
   </si>
@@ -4661,14 +4661,6 @@
   </si>
   <si>
     <t>止音，依據音符長度來定義</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>單音</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>和弦</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -5572,10 +5564,10 @@
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K99" sqref="K99"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -6200,9 +6192,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="35" t="s">
-        <v>655</v>
-      </c>
+      <c r="H15" s="35"/>
       <c r="I15" s="6"/>
       <c r="J15" s="44" t="s">
         <v>598</v>
@@ -6273,9 +6263,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="35" t="s">
-        <v>656</v>
-      </c>
+      <c r="H17" s="35"/>
       <c r="I17" s="6"/>
       <c r="J17" s="49" t="s">
         <v>600</v>
@@ -7354,7 +7342,7 @@
         <v>560</v>
       </c>
       <c r="O40" s="35" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="P40" s="6">
         <f t="shared" si="0"/>
@@ -7400,7 +7388,7 @@
         <v>623</v>
       </c>
       <c r="O41" s="35" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="P41" s="6">
         <f t="shared" si="0"/>
@@ -7448,7 +7436,7 @@
         <v>374</v>
       </c>
       <c r="O42" s="41" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="P42" s="6">
         <f t="shared" si="0"/>
@@ -7489,7 +7477,7 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="O43" s="34" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P43" s="6">
         <f t="shared" si="0"/>
@@ -7716,7 +7704,7 @@
         <v>643</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="I49" s="35" t="s">
         <v>368</v>
@@ -7753,7 +7741,7 @@
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="35" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>

--- a/MPC82/PitchTable.xlsx
+++ b/MPC82/PitchTable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="480" windowWidth="18015" windowHeight="8325"/>
@@ -15,12 +15,12 @@
     <sheet name="廠商名錄" sheetId="6" r:id="rId6"/>
     <sheet name="工作表6" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="663">
   <si>
     <t>C調</t>
   </si>
@@ -4664,11 +4664,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>上刷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下刷</t>
+    <t>單音</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>和弦</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -4727,6 +4727,14 @@
       </rPr>
       <t xml:space="preserve"> 39-&gt;None</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下刷 i33</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上刷 i57</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5564,10 +5572,10 @@
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5701,7 +5709,9 @@
         <v>509</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="23"/>
+      <c r="M3" s="23">
+        <v>12</v>
+      </c>
       <c r="N3" s="31" t="s">
         <v>473</v>
       </c>
@@ -5752,7 +5762,10 @@
       <c r="L4" s="6">
         <v>12</v>
       </c>
-      <c r="M4" s="23"/>
+      <c r="M4" s="23">
+        <f>M3 + 1</f>
+        <v>13</v>
+      </c>
       <c r="N4" s="32" t="s">
         <v>474</v>
       </c>
@@ -5793,7 +5806,10 @@
         <v>511</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="23"/>
+      <c r="M5" s="23">
+        <f t="shared" ref="M5:M14" si="1">M4 + 1</f>
+        <v>14</v>
+      </c>
       <c r="N5" s="32" t="s">
         <v>475</v>
       </c>
@@ -5832,7 +5848,10 @@
         <v>512</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="23"/>
+      <c r="M6" s="23">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="N6" s="32" t="s">
         <v>476</v>
       </c>
@@ -5873,7 +5892,10 @@
         <v>513</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="23"/>
+      <c r="M7" s="23">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
       <c r="N7" s="33" t="s">
         <v>477</v>
       </c>
@@ -5914,7 +5936,10 @@
         <v>514</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="23"/>
+      <c r="M8" s="23">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="N8" s="31" t="s">
         <v>478</v>
       </c>
@@ -5955,7 +5980,10 @@
         <v>515</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="23"/>
+      <c r="M9" s="23">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
       <c r="N9" s="33" t="s">
         <v>479</v>
       </c>
@@ -5996,7 +6024,10 @@
         <v>516</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="23"/>
+      <c r="M10" s="23">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
       <c r="N10" s="31" t="s">
         <v>480</v>
       </c>
@@ -6037,7 +6068,10 @@
         <v>517</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="23"/>
+      <c r="M11" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="N11" s="32" t="s">
         <v>481</v>
       </c>
@@ -6078,7 +6112,10 @@
         <v>518</v>
       </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="23"/>
+      <c r="M12" s="23">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
       <c r="N12" s="33" t="s">
         <v>653</v>
       </c>
@@ -6119,7 +6156,10 @@
         <v>519</v>
       </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="23"/>
+      <c r="M13" s="23">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
       <c r="N13" s="31" t="s">
         <v>482</v>
       </c>
@@ -6162,7 +6202,10 @@
         <v>520</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="23"/>
+      <c r="M14" s="23">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
       <c r="N14" s="33" t="s">
         <v>483</v>
       </c>
@@ -6192,7 +6235,9 @@
         <v>13</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="35"/>
+      <c r="H15" s="35" t="s">
+        <v>655</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="44" t="s">
         <v>598</v>
@@ -6263,7 +6308,9 @@
         <v>15</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="35"/>
+      <c r="H17" s="35" t="s">
+        <v>656</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="49" t="s">
         <v>600</v>
@@ -7704,7 +7751,7 @@
         <v>643</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="I49" s="35" t="s">
         <v>368</v>
@@ -7712,7 +7759,9 @@
       <c r="J49" s="6"/>
       <c r="K49" s="34"/>
       <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
+      <c r="M49" s="6">
+        <v>66</v>
+      </c>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6">
@@ -7741,13 +7790,15 @@
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="35" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="34"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
+      <c r="M50" s="6">
+        <v>67</v>
+      </c>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
       <c r="P50" s="6">
@@ -7784,7 +7835,9 @@
         <v>521</v>
       </c>
       <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
+      <c r="M51" s="6">
+        <v>68</v>
+      </c>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
       <c r="P51" s="6">
@@ -7821,7 +7874,10 @@
         <v>522</v>
       </c>
       <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
+      <c r="M52" s="6">
+        <f>M51+1</f>
+        <v>69</v>
+      </c>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6">
@@ -7858,7 +7914,10 @@
         <v>523</v>
       </c>
       <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
+      <c r="M53" s="6">
+        <f t="shared" ref="M53:M86" si="2">M52+1</f>
+        <v>70</v>
+      </c>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
       <c r="P53" s="6">
@@ -7895,7 +7954,10 @@
         <v>524</v>
       </c>
       <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
+      <c r="M54" s="6">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6">
@@ -7932,7 +7994,10 @@
         <v>525</v>
       </c>
       <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
+      <c r="M55" s="6">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
       <c r="P55" s="6">
@@ -7969,7 +8034,10 @@
         <v>526</v>
       </c>
       <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
+      <c r="M56" s="6">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
       <c r="P56" s="6">
@@ -8004,7 +8072,10 @@
         <v>527</v>
       </c>
       <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
+      <c r="M57" s="6">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
       <c r="P57" s="6">
@@ -8037,7 +8108,10 @@
         <v>528</v>
       </c>
       <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
+      <c r="M58" s="6">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
       <c r="P58" s="6">
@@ -8070,7 +8144,10 @@
         <v>529</v>
       </c>
       <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
+      <c r="M59" s="6">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
       <c r="P59" s="6">
@@ -8103,7 +8180,10 @@
         <v>530</v>
       </c>
       <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
+      <c r="M60" s="6">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
       <c r="P60" s="6">
@@ -8136,7 +8216,10 @@
         <v>531</v>
       </c>
       <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
+      <c r="M61" s="6">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
       <c r="P61" s="6">
@@ -8169,7 +8252,10 @@
         <v>532</v>
       </c>
       <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
+      <c r="M62" s="6">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
       <c r="P62" s="6">
@@ -8202,7 +8288,10 @@
         <v>533</v>
       </c>
       <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
+      <c r="M63" s="6">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6">
@@ -8235,7 +8324,10 @@
         <v>534</v>
       </c>
       <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
+      <c r="M64" s="6">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
       <c r="P64" s="6">
@@ -8268,7 +8360,10 @@
         <v>535</v>
       </c>
       <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
+      <c r="M65" s="6">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
       <c r="P65" s="6">
@@ -8301,7 +8396,10 @@
         <v>536</v>
       </c>
       <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
+      <c r="M66" s="6">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
       <c r="P66" s="6">
@@ -8334,7 +8432,10 @@
         <v>537</v>
       </c>
       <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
+      <c r="M67" s="6">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
       <c r="P67" s="6">
@@ -8367,11 +8468,14 @@
         <v>538</v>
       </c>
       <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
+      <c r="M68" s="6">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
       <c r="P68" s="6">
-        <f t="shared" ref="P68:P86" si="1">P67+1</f>
+        <f t="shared" ref="P68:P86" si="3">P67+1</f>
         <v>101</v>
       </c>
       <c r="Q68" s="6"/>
@@ -8396,11 +8500,14 @@
         <v>539</v>
       </c>
       <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
+      <c r="M69" s="6">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
       <c r="P69" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="Q69" s="6"/>
@@ -8429,11 +8536,14 @@
         <v>540</v>
       </c>
       <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
+      <c r="M70" s="6">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
       <c r="P70" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="Q70" s="6"/>
@@ -8458,11 +8568,14 @@
         <v>541</v>
       </c>
       <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
+      <c r="M71" s="6">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
       <c r="P71" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="Q71" s="6"/>
@@ -8487,11 +8600,14 @@
         <v>542</v>
       </c>
       <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
+      <c r="M72" s="6">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
       <c r="P72" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="Q72" s="6"/>
@@ -8516,11 +8632,14 @@
         <v>543</v>
       </c>
       <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
+      <c r="M73" s="6">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
       <c r="P73" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="Q73" s="6"/>
@@ -8545,11 +8664,14 @@
         <v>544</v>
       </c>
       <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
+      <c r="M74" s="6">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
       <c r="P74" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="Q74" s="6"/>
@@ -8574,11 +8696,14 @@
         <v>545</v>
       </c>
       <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
+      <c r="M75" s="6">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
       <c r="P75" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="Q75" s="6"/>
@@ -8603,11 +8728,14 @@
         <v>546</v>
       </c>
       <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
+      <c r="M76" s="6">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
       <c r="P76" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="Q76" s="6"/>
@@ -8632,11 +8760,14 @@
         <v>547</v>
       </c>
       <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
+      <c r="M77" s="6">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
       <c r="P77" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="Q77" s="6"/>
@@ -8661,11 +8792,14 @@
         <v>548</v>
       </c>
       <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
+      <c r="M78" s="6">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
       <c r="P78" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="Q78" s="6"/>
@@ -8690,11 +8824,14 @@
         <v>549</v>
       </c>
       <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
+      <c r="M79" s="6">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
       <c r="P79" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="Q79" s="6"/>
@@ -8719,11 +8856,14 @@
         <v>550</v>
       </c>
       <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
+      <c r="M80" s="6">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
       <c r="P80" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="Q80" s="6"/>
@@ -8748,11 +8888,14 @@
         <v>551</v>
       </c>
       <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
+      <c r="M81" s="6">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
       <c r="P81" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="Q81" s="6"/>
@@ -8777,11 +8920,14 @@
         <v>552</v>
       </c>
       <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
+      <c r="M82" s="6">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
       <c r="P82" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="Q82" s="6"/>
@@ -8806,11 +8952,14 @@
         <v>553</v>
       </c>
       <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
+      <c r="M83" s="6">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
       <c r="P83" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="Q83" s="6"/>
@@ -8835,11 +8984,14 @@
         <v>554</v>
       </c>
       <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
+      <c r="M84" s="6">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
       <c r="P84" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="Q84" s="6"/>
@@ -8864,11 +9016,14 @@
         <v>555</v>
       </c>
       <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
+      <c r="M85" s="6">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
       <c r="P85" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="Q85" s="6"/>
@@ -8893,11 +9048,14 @@
         <v>556</v>
       </c>
       <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
+      <c r="M86" s="6">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
       <c r="P86" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="R86" s="6"/>

--- a/MPC82/PitchTable.xlsx
+++ b/MPC82/PitchTable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="480" windowWidth="18015" windowHeight="8325"/>
@@ -15,12 +15,12 @@
     <sheet name="廠商名錄" sheetId="6" r:id="rId6"/>
     <sheet name="工作表6" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="721">
   <si>
     <t>C調</t>
   </si>
@@ -4735,6 +4735,238 @@
   </si>
   <si>
     <t>上刷 i57</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organ Bike</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(P17)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2(P20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3(P21)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4(P22)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5(P23)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6(P24)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7(P25)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(P26)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9(P56)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10(P55)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11(P34)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12(P35)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13(P36)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14(P37)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15(P40)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16(P41)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>17(P42)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18(P43)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>19(P46)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(P50)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21(P51)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22(P52)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23(P53)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>24(P54)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>25(P00)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>26(P01)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>27(P02)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>28(P03)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>29(P04)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(P05)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>31(P06)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>32(P07)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>33(P11)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>34(P14)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>35(P15)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36(P16)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>37(P17)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>38(P20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>39(P21)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40(P22)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>41(P23)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>42(P24)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>43(P25)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>44(P26)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>45(P56)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>46(P55)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>47(P34)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>48(P35)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>49(P36)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50(P37)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>51(P40)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>52(P41)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>53(P42)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>54(P43)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>55(P46)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>56(P50)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>57(P51)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4790,7 +5022,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4902,6 +5134,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5097,7 +5335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5274,6 +5512,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5569,13 +5843,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R86"/>
+  <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
+      <selection pane="bottomRight" activeCell="P72" sqref="P72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5588,9 +5862,10 @@
     <col min="11" max="13" width="8.7109375" customWidth="1"/>
     <col min="14" max="14" width="22.5703125" customWidth="1"/>
     <col min="15" max="15" width="29.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="12.75" customHeight="1">
+    <row r="1" spans="1:19" ht="12.75" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5634,11 +5909,14 @@
         <v>11</v>
       </c>
       <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="P1" s="6" t="s">
+        <v>663</v>
+      </c>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" ht="12.75" customHeight="1">
       <c r="A2" s="51" t="s">
         <v>12</v>
       </c>
@@ -5680,13 +5958,14 @@
         <v>9</v>
       </c>
       <c r="O2" s="6"/>
-      <c r="P2" s="14">
+      <c r="P2" s="62"/>
+      <c r="Q2" s="14">
         <v>35</v>
       </c>
-      <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" ht="12.75" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>138</v>
       </c>
@@ -5716,18 +5995,19 @@
         <v>473</v>
       </c>
       <c r="O3" s="16"/>
-      <c r="P3" s="6">
-        <f>P2+1</f>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="6">
+        <f>Q2+1</f>
         <v>36</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="12.75" customHeight="1">
+    <row r="4" spans="1:19" ht="12.75" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="13" t="s">
         <v>140</v>
@@ -5772,18 +6052,21 @@
       <c r="O4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="6">
-        <f t="shared" ref="P4:P67" si="0">P3+1</f>
+      <c r="P4" s="59">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="6">
+        <f t="shared" ref="Q4:Q67" si="0">Q3+1</f>
         <v>37</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="12.75" customHeight="1">
+    <row r="5" spans="1:19" ht="12.75" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>142</v>
       </c>
@@ -5814,18 +6097,19 @@
         <v>475</v>
       </c>
       <c r="O5" s="16"/>
-      <c r="P5" s="6">
+      <c r="P5" s="59"/>
+      <c r="Q5" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="S5" s="6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="12.75" customHeight="1">
+    <row r="6" spans="1:19" ht="12.75" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
         <v>144</v>
@@ -5856,18 +6140,19 @@
         <v>476</v>
       </c>
       <c r="O6" s="16"/>
-      <c r="P6" s="6">
+      <c r="P6" s="59"/>
+      <c r="Q6" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="R6" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="S6" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="12.75" customHeight="1">
+    <row r="7" spans="1:19" ht="12.75" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>147</v>
       </c>
@@ -5900,18 +6185,19 @@
         <v>477</v>
       </c>
       <c r="O7" s="16"/>
-      <c r="P7" s="6">
+      <c r="P7" s="59"/>
+      <c r="Q7" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="S7" s="6" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12.75" customHeight="1">
+    <row r="8" spans="1:19" ht="12.75" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>148</v>
       </c>
@@ -5944,18 +6230,19 @@
         <v>478</v>
       </c>
       <c r="O8" s="16"/>
-      <c r="P8" s="6">
+      <c r="P8" s="59"/>
+      <c r="Q8" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="R8" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="S8" s="6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="12.75" customHeight="1">
+    <row r="9" spans="1:19" ht="12.75" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="s">
         <v>149</v>
@@ -5988,18 +6275,19 @@
         <v>479</v>
       </c>
       <c r="O9" s="16"/>
-      <c r="P9" s="6">
+      <c r="P9" s="59"/>
+      <c r="Q9" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="R9" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="S9" s="6" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="12.75" customHeight="1">
+    <row r="10" spans="1:19" ht="12.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>150</v>
       </c>
@@ -6032,18 +6320,19 @@
         <v>480</v>
       </c>
       <c r="O10" s="16"/>
-      <c r="P10" s="6">
+      <c r="P10" s="59"/>
+      <c r="Q10" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="R10" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="S10" s="6" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12.75" customHeight="1">
+    <row r="11" spans="1:19" ht="12.75" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="13" t="s">
         <v>151</v>
@@ -6076,18 +6365,19 @@
         <v>481</v>
       </c>
       <c r="O11" s="16"/>
-      <c r="P11" s="6">
+      <c r="P11" s="59"/>
+      <c r="Q11" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="R11" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="S11" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="12.75" customHeight="1">
+    <row r="12" spans="1:19" ht="12.75" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>152</v>
       </c>
@@ -6120,18 +6410,19 @@
         <v>653</v>
       </c>
       <c r="O12" s="24"/>
-      <c r="P12" s="6">
+      <c r="P12" s="59"/>
+      <c r="Q12" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="Q12" s="6" t="s">
+      <c r="R12" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="S12" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="12.75" customHeight="1">
+    <row r="13" spans="1:19" ht="12.75" customHeight="1">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
         <v>154</v>
@@ -6166,18 +6457,19 @@
       <c r="O13" s="52" t="s">
         <v>654</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="60"/>
+      <c r="Q13" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="R13" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="S13" s="6" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12.75" customHeight="1">
+    <row r="14" spans="1:19" ht="12.75" customHeight="1">
       <c r="A14" s="13" t="s">
         <v>155</v>
       </c>
@@ -6210,18 +6502,19 @@
         <v>483</v>
       </c>
       <c r="O14" s="53"/>
-      <c r="P14" s="6">
+      <c r="P14" s="61"/>
+      <c r="Q14" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="Q14" s="6" t="s">
+      <c r="R14" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="S14" s="6" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -6248,18 +6541,21 @@
         <v>484</v>
       </c>
       <c r="O15" s="53"/>
-      <c r="P15" s="6">
+      <c r="P15" s="63" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q15" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="R15" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="S15" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="12.75" customHeight="1">
+    <row r="16" spans="1:19" ht="12.75" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
@@ -6283,18 +6579,21 @@
         <v>485</v>
       </c>
       <c r="O16" s="54"/>
-      <c r="P16" s="6">
+      <c r="P16" s="63" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q16" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="R16" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="S16" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="12.75" customHeight="1">
+    <row r="17" spans="1:19" ht="12.75" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -6321,18 +6620,21 @@
         <v>486</v>
       </c>
       <c r="O17" s="7"/>
-      <c r="P17" s="6">
+      <c r="P17" s="64" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q17" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="Q17" s="6" t="s">
+      <c r="R17" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="S17" s="6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:19" ht="12.75" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
         <v>20</v>
@@ -6357,16 +6659,19 @@
         <v>487</v>
       </c>
       <c r="O18" s="16"/>
-      <c r="P18" s="6">
+      <c r="P18" s="64" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q18" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="R18" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="R18" s="6"/>
-    </row>
-    <row r="19" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S18" s="6"/>
+    </row>
+    <row r="19" spans="1:19" ht="12.75" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
@@ -6397,16 +6702,19 @@
         <v>488</v>
       </c>
       <c r="O19" s="16"/>
-      <c r="P19" s="6">
+      <c r="P19" s="64" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q19" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="R19" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="R19" s="6"/>
-    </row>
-    <row r="20" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" spans="1:19" ht="12.75" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
@@ -6441,16 +6749,19 @@
         <v>489</v>
       </c>
       <c r="O20" s="1"/>
-      <c r="P20" s="6">
+      <c r="P20" s="65" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q20" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="Q20" s="6" t="s">
+      <c r="R20" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="R20" s="6"/>
-    </row>
-    <row r="21" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" spans="1:19" ht="12.75" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
         <v>27</v>
@@ -6485,16 +6796,19 @@
         <v>490</v>
       </c>
       <c r="O21" s="1"/>
-      <c r="P21" s="6">
+      <c r="P21" s="65" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q21" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="R21" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="R21" s="6"/>
-    </row>
-    <row r="22" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="1:19" ht="12.75" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
@@ -6529,16 +6843,19 @@
         <v>496</v>
       </c>
       <c r="O22" s="1"/>
-      <c r="P22" s="6">
+      <c r="P22" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="Q22" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="Q22" s="6" t="s">
+      <c r="R22" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="R22" s="6"/>
-    </row>
-    <row r="23" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="1:19" ht="12.75" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
         <v>31</v>
@@ -6573,18 +6890,21 @@
         <v>498</v>
       </c>
       <c r="O23" s="1"/>
-      <c r="P23" s="6">
+      <c r="P23" s="65" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q23" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="Q23" s="35" t="s">
+      <c r="R23" s="35" t="s">
         <v>652</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="S23" s="6" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="12.75" customHeight="1">
+    <row r="24" spans="1:19" ht="12.75" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>33</v>
       </c>
@@ -6619,18 +6939,21 @@
         <v>497</v>
       </c>
       <c r="O24" s="40"/>
-      <c r="P24" s="6">
+      <c r="P24" s="66" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q24" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="Q24" s="35" t="s">
+      <c r="R24" s="35" t="s">
         <v>648</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="S24" s="6" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="12.75" customHeight="1">
+    <row r="25" spans="1:19" ht="12.75" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
         <v>35</v>
@@ -6665,18 +6988,21 @@
         <v>499</v>
       </c>
       <c r="O25" s="1"/>
-      <c r="P25" s="6">
+      <c r="P25" s="65" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q25" s="6">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="Q25" s="6" t="s">
+      <c r="R25" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="R25" s="6" t="s">
+      <c r="S25" s="6" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="12.75" customHeight="1">
+    <row r="26" spans="1:19" ht="12.75" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>38</v>
       </c>
@@ -6711,18 +7037,21 @@
         <v>500</v>
       </c>
       <c r="O26" s="1"/>
-      <c r="P26" s="6">
+      <c r="P26" s="65" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q26" s="6">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="Q26" s="6" t="s">
+      <c r="R26" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="R26" s="6" t="s">
+      <c r="S26" s="6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="12.75" customHeight="1">
+    <row r="27" spans="1:19" ht="12.75" customHeight="1">
       <c r="A27" s="13" t="s">
         <v>40</v>
       </c>
@@ -6760,18 +7089,21 @@
         <v>491</v>
       </c>
       <c r="O27" s="1"/>
-      <c r="P27" s="6">
+      <c r="P27" s="65" t="s">
+        <v>676</v>
+      </c>
+      <c r="Q27" s="6">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="Q27" s="6" t="s">
+      <c r="R27" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="R27" s="6" t="s">
+      <c r="S27" s="6" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="12.75" customHeight="1">
+    <row r="28" spans="1:19" ht="12.75" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="13" t="s">
         <v>42</v>
@@ -6809,18 +7141,21 @@
         <v>492</v>
       </c>
       <c r="O28" s="1"/>
-      <c r="P28" s="6">
+      <c r="P28" s="65" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q28" s="6">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="Q28" s="6" t="s">
+      <c r="R28" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="R28" s="6" t="s">
+      <c r="S28" s="6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="12.75" customHeight="1">
+    <row r="29" spans="1:19" ht="12.75" customHeight="1">
       <c r="A29" s="13" t="s">
         <v>44</v>
       </c>
@@ -6858,18 +7193,21 @@
         <v>493</v>
       </c>
       <c r="O29" s="1"/>
-      <c r="P29" s="6">
+      <c r="P29" s="65" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q29" s="6">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="Q29" s="6" t="s">
+      <c r="R29" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="R29" s="6" t="s">
+      <c r="S29" s="6" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="12.75" customHeight="1">
+    <row r="30" spans="1:19" ht="12.75" customHeight="1">
       <c r="A30" s="13"/>
       <c r="B30" s="13" t="s">
         <v>46</v>
@@ -6907,18 +7245,21 @@
         <v>494</v>
       </c>
       <c r="O30" s="1"/>
-      <c r="P30" s="6">
+      <c r="P30" s="65" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q30" s="6">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="Q30" s="6" t="s">
+      <c r="R30" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="R30" s="6" t="s">
+      <c r="S30" s="6" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="12.75" customHeight="1">
+    <row r="31" spans="1:19" ht="12.75" customHeight="1">
       <c r="A31" s="13" t="s">
         <v>48</v>
       </c>
@@ -6956,18 +7297,21 @@
         <v>495</v>
       </c>
       <c r="O31" s="1"/>
-      <c r="P31" s="6">
+      <c r="P31" s="65" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q31" s="6">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="Q31" s="6" t="s">
+      <c r="R31" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="R31" s="6" t="s">
+      <c r="S31" s="6" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="12.75" customHeight="1">
+    <row r="32" spans="1:19" ht="12.75" customHeight="1">
       <c r="A32" s="13" t="s">
         <v>50</v>
       </c>
@@ -7005,18 +7349,21 @@
         <v>501</v>
       </c>
       <c r="O32" s="1"/>
-      <c r="P32" s="6">
+      <c r="P32" s="65" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q32" s="6">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="Q32" s="6" t="s">
+      <c r="R32" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="R32" s="6" t="s">
+      <c r="S32" s="6" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="12.75" customHeight="1">
+    <row r="33" spans="1:19" ht="12.75" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="13" t="s">
         <v>52</v>
@@ -7054,18 +7401,21 @@
         <v>502</v>
       </c>
       <c r="O33" s="1"/>
-      <c r="P33" s="6">
+      <c r="P33" s="65" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q33" s="6">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="Q33" s="6" t="s">
+      <c r="R33" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="R33" s="6" t="s">
+      <c r="S33" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="12.75" customHeight="1">
+    <row r="34" spans="1:19" ht="12.75" customHeight="1">
       <c r="A34" s="13" t="s">
         <v>54</v>
       </c>
@@ -7103,18 +7453,21 @@
         <v>503</v>
       </c>
       <c r="O34" s="1"/>
-      <c r="P34" s="6">
+      <c r="P34" s="65" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q34" s="6">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="Q34" s="6" t="s">
+      <c r="R34" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="R34" s="6" t="s">
+      <c r="S34" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="12.75" customHeight="1">
+    <row r="35" spans="1:19" ht="12.75" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
         <v>56</v>
@@ -7152,18 +7505,21 @@
         <v>504</v>
       </c>
       <c r="O35" s="1"/>
-      <c r="P35" s="6">
+      <c r="P35" s="65" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q35" s="6">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="Q35" s="6" t="s">
+      <c r="R35" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="R35" s="6" t="s">
+      <c r="S35" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="12.75" customHeight="1">
+    <row r="36" spans="1:19" ht="12.75" customHeight="1">
       <c r="A36" s="13" t="s">
         <v>58</v>
       </c>
@@ -7201,18 +7557,21 @@
         <v>505</v>
       </c>
       <c r="O36" s="1"/>
-      <c r="P36" s="6">
+      <c r="P36" s="65" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q36" s="6">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="Q36" s="34" t="s">
+      <c r="R36" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="R36" s="6" t="s">
+      <c r="S36" s="6" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="12.75" customHeight="1">
+    <row r="37" spans="1:19" ht="12.75" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
         <v>60</v>
@@ -7248,18 +7607,21 @@
         <v>506</v>
       </c>
       <c r="O37" s="1"/>
-      <c r="P37" s="6">
+      <c r="P37" s="65" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q37" s="6">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="Q37" s="34" t="s">
+      <c r="R37" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="R37" s="6" t="s">
+      <c r="S37" s="6" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="12.75" customHeight="1">
+    <row r="38" spans="1:19" ht="12.75" customHeight="1">
       <c r="A38" s="13" t="s">
         <v>62</v>
       </c>
@@ -7295,18 +7657,21 @@
         <v>507</v>
       </c>
       <c r="O38" s="1"/>
-      <c r="P38" s="6">
+      <c r="P38" s="65" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q38" s="6">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="Q38" s="34" t="s">
+      <c r="R38" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="R38" s="6" t="s">
+      <c r="S38" s="6" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="12.75" customHeight="1">
+    <row r="39" spans="1:19" ht="12.75" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>64</v>
       </c>
@@ -7342,18 +7707,21 @@
         <v>508</v>
       </c>
       <c r="O39" s="40"/>
-      <c r="P39" s="6">
+      <c r="P39" s="66" t="s">
+        <v>688</v>
+      </c>
+      <c r="Q39" s="6">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="Q39" s="34" t="s">
+      <c r="R39" s="34" t="s">
         <v>633</v>
       </c>
-      <c r="R39" s="6" t="s">
+      <c r="S39" s="6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="12.75" customHeight="1">
+    <row r="40" spans="1:19" ht="12.75" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
         <v>65</v>
@@ -7391,18 +7759,21 @@
       <c r="O40" s="35" t="s">
         <v>657</v>
       </c>
-      <c r="P40" s="6">
+      <c r="P40" s="67" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q40" s="6">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="Q40" s="34" t="s">
+      <c r="R40" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="R40" s="6" t="s">
+      <c r="S40" s="6" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="12.75" customHeight="1">
+    <row r="41" spans="1:19" ht="12.75" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>66</v>
       </c>
@@ -7437,18 +7808,21 @@
       <c r="O41" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="P41" s="6">
+      <c r="P41" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q41" s="6">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="Q41" s="34" t="s">
+      <c r="R41" s="34" t="s">
         <v>373</v>
       </c>
-      <c r="R41" s="6" t="s">
+      <c r="S41" s="6" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="12.75" customHeight="1">
+    <row r="42" spans="1:19" ht="12.75" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
         <v>67</v>
@@ -7485,15 +7859,18 @@
       <c r="O42" s="41" t="s">
         <v>659</v>
       </c>
-      <c r="P42" s="6">
+      <c r="P42" s="68" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q42" s="6">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="R42" s="6" t="s">
+      <c r="S42" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="12.75" customHeight="1">
+    <row r="43" spans="1:19" ht="12.75" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>68</v>
       </c>
@@ -7526,16 +7903,19 @@
       <c r="O43" s="34" t="s">
         <v>660</v>
       </c>
-      <c r="P43" s="6">
+      <c r="P43" s="69" t="s">
+        <v>692</v>
+      </c>
+      <c r="Q43" s="6">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="6" t="s">
+      <c r="R43" s="34"/>
+      <c r="S43" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="12.75" customHeight="1">
+    <row r="44" spans="1:19" ht="12.75" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>69</v>
       </c>
@@ -7567,14 +7947,17 @@
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
-      <c r="P44" s="6">
+      <c r="P44" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q44" s="6">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
-    </row>
-    <row r="45" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S44" s="6"/>
+    </row>
+    <row r="45" spans="1:19" ht="12.75" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
         <v>71</v>
@@ -7606,14 +7989,17 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
-      <c r="P45" s="6">
+      <c r="P45" s="70" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q45" s="6">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
-    </row>
-    <row r="46" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S45" s="6"/>
+    </row>
+    <row r="46" spans="1:19" ht="12.75" customHeight="1">
       <c r="A46" s="6" t="s">
         <v>73</v>
       </c>
@@ -7645,14 +8031,17 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
-      <c r="P46" s="6">
+      <c r="P46" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q46" s="6">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
-    </row>
-    <row r="47" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S46" s="6"/>
+    </row>
+    <row r="47" spans="1:19" ht="12.75" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="6" t="s">
         <v>75</v>
@@ -7684,14 +8073,17 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
-      <c r="P47" s="6">
+      <c r="P47" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q47" s="6">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
-    </row>
-    <row r="48" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S47" s="6"/>
+    </row>
+    <row r="48" spans="1:19" ht="12.75" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>77</v>
       </c>
@@ -7723,14 +8115,17 @@
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
-      <c r="P48" s="6">
+      <c r="P48" s="70" t="s">
+        <v>697</v>
+      </c>
+      <c r="Q48" s="6">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
-    </row>
-    <row r="49" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S48" s="6"/>
+    </row>
+    <row r="49" spans="1:19" ht="12.75" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
         <v>79</v>
@@ -7764,14 +8159,17 @@
       </c>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
-      <c r="P49" s="6">
+      <c r="P49" s="70" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q49" s="6">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
-    </row>
-    <row r="50" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S49" s="6"/>
+    </row>
+    <row r="50" spans="1:19" ht="12.75" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>81</v>
       </c>
@@ -7801,14 +8199,17 @@
       </c>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
-      <c r="P50" s="6">
+      <c r="P50" s="70" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q50" s="6">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
-    </row>
-    <row r="51" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S50" s="6"/>
+    </row>
+    <row r="51" spans="1:19" ht="12.75" customHeight="1">
       <c r="A51" s="13" t="s">
         <v>83</v>
       </c>
@@ -7840,14 +8241,17 @@
       </c>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
-      <c r="P51" s="6">
+      <c r="P51" s="70" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q51" s="6">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
-    </row>
-    <row r="52" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S51" s="6"/>
+    </row>
+    <row r="52" spans="1:19" ht="12.75" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="13" t="s">
         <v>85</v>
@@ -7880,14 +8284,17 @@
       </c>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
-      <c r="P52" s="6">
+      <c r="P52" s="70" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q52" s="6">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
-    </row>
-    <row r="53" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S52" s="6"/>
+    </row>
+    <row r="53" spans="1:19" ht="12.75" customHeight="1">
       <c r="A53" s="13" t="s">
         <v>87</v>
       </c>
@@ -7920,14 +8327,17 @@
       </c>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
-      <c r="P53" s="6">
+      <c r="P53" s="70" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q53" s="6">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
-    </row>
-    <row r="54" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S53" s="6"/>
+    </row>
+    <row r="54" spans="1:19" ht="12.75" customHeight="1">
       <c r="A54" s="13"/>
       <c r="B54" s="13" t="s">
         <v>88</v>
@@ -7960,14 +8370,17 @@
       </c>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
-      <c r="P54" s="6">
+      <c r="P54" s="70" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q54" s="6">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
-    </row>
-    <row r="55" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S54" s="6"/>
+    </row>
+    <row r="55" spans="1:19" ht="12.75" customHeight="1">
       <c r="A55" s="13" t="s">
         <v>89</v>
       </c>
@@ -8000,14 +8413,17 @@
       </c>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
-      <c r="P55" s="6">
+      <c r="P55" s="70" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q55" s="6">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
-    </row>
-    <row r="56" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S55" s="6"/>
+    </row>
+    <row r="56" spans="1:19" ht="12.75" customHeight="1">
       <c r="A56" s="13" t="s">
         <v>90</v>
       </c>
@@ -8040,14 +8456,17 @@
       </c>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
-      <c r="P56" s="6">
+      <c r="P56" s="70" t="s">
+        <v>705</v>
+      </c>
+      <c r="Q56" s="6">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
-    </row>
-    <row r="57" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S56" s="6"/>
+    </row>
+    <row r="57" spans="1:19" ht="12.75" customHeight="1">
       <c r="A57" s="13"/>
       <c r="B57" s="13" t="s">
         <v>91</v>
@@ -8078,14 +8497,17 @@
       </c>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
-      <c r="P57" s="6">
+      <c r="P57" s="70" t="s">
+        <v>706</v>
+      </c>
+      <c r="Q57" s="6">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
-    </row>
-    <row r="58" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S57" s="6"/>
+    </row>
+    <row r="58" spans="1:19" ht="12.75" customHeight="1">
       <c r="A58" s="13" t="s">
         <v>92</v>
       </c>
@@ -8114,14 +8536,17 @@
       </c>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
-      <c r="P58" s="6">
+      <c r="P58" s="70" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q58" s="6">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
-    </row>
-    <row r="59" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S58" s="6"/>
+    </row>
+    <row r="59" spans="1:19" ht="12.75" customHeight="1">
       <c r="A59" s="13"/>
       <c r="B59" s="13" t="s">
         <v>93</v>
@@ -8150,14 +8575,17 @@
       </c>
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
-      <c r="P59" s="6">
+      <c r="P59" s="70" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q59" s="6">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
-    </row>
-    <row r="60" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S59" s="6"/>
+    </row>
+    <row r="60" spans="1:19" ht="12.75" customHeight="1">
       <c r="A60" s="13" t="s">
         <v>94</v>
       </c>
@@ -8186,14 +8614,17 @@
       </c>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
-      <c r="P60" s="6">
+      <c r="P60" s="70" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q60" s="6">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
-    </row>
-    <row r="61" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S60" s="6"/>
+    </row>
+    <row r="61" spans="1:19" ht="12.75" customHeight="1">
       <c r="A61" s="13"/>
       <c r="B61" s="13" t="s">
         <v>95</v>
@@ -8222,14 +8653,17 @@
       </c>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
-      <c r="P61" s="6">
+      <c r="P61" s="70" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q61" s="6">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
-    </row>
-    <row r="62" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S61" s="6"/>
+    </row>
+    <row r="62" spans="1:19" ht="12.75" customHeight="1">
       <c r="A62" s="13" t="s">
         <v>96</v>
       </c>
@@ -8258,14 +8692,17 @@
       </c>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
-      <c r="P62" s="6">
+      <c r="P62" s="70" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q62" s="6">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
-    </row>
-    <row r="63" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S62" s="6"/>
+    </row>
+    <row r="63" spans="1:19" ht="12.75" customHeight="1">
       <c r="A63" s="6" t="s">
         <v>97</v>
       </c>
@@ -8294,14 +8731,17 @@
       </c>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
-      <c r="P63" s="6">
+      <c r="P63" s="70" t="s">
+        <v>712</v>
+      </c>
+      <c r="Q63" s="6">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
-    </row>
-    <row r="64" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S63" s="6"/>
+    </row>
+    <row r="64" spans="1:19" ht="12.75" customHeight="1">
       <c r="A64" s="6"/>
       <c r="B64" s="6" t="s">
         <v>98</v>
@@ -8330,14 +8770,17 @@
       </c>
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
-      <c r="P64" s="6">
+      <c r="P64" s="70" t="s">
+        <v>713</v>
+      </c>
+      <c r="Q64" s="6">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
-    </row>
-    <row r="65" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S64" s="6"/>
+    </row>
+    <row r="65" spans="1:19" ht="12.75" customHeight="1">
       <c r="A65" s="6" t="s">
         <v>99</v>
       </c>
@@ -8366,14 +8809,17 @@
       </c>
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
-      <c r="P65" s="6">
+      <c r="P65" s="70" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q65" s="6">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
-    </row>
-    <row r="66" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S65" s="6"/>
+    </row>
+    <row r="66" spans="1:19" ht="12.75" customHeight="1">
       <c r="A66" s="6"/>
       <c r="B66" s="6" t="s">
         <v>100</v>
@@ -8402,14 +8848,17 @@
       </c>
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
-      <c r="P66" s="6">
+      <c r="P66" s="70" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q66" s="6">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
-    </row>
-    <row r="67" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S66" s="6"/>
+    </row>
+    <row r="67" spans="1:19" ht="12.75" customHeight="1">
       <c r="A67" s="6" t="s">
         <v>101</v>
       </c>
@@ -8438,14 +8887,17 @@
       </c>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
-      <c r="P67" s="6">
+      <c r="P67" s="70" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q67" s="6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
-    </row>
-    <row r="68" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S67" s="6"/>
+    </row>
+    <row r="68" spans="1:19" ht="12.75" customHeight="1">
       <c r="A68" s="6" t="s">
         <v>102</v>
       </c>
@@ -8474,14 +8926,17 @@
       </c>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
-      <c r="P68" s="6">
-        <f t="shared" ref="P68:P86" si="3">P67+1</f>
+      <c r="P68" s="70" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q68" s="6">
+        <f t="shared" ref="Q68:Q86" si="3">Q67+1</f>
         <v>101</v>
       </c>
-      <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
-    </row>
-    <row r="69" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S68" s="6"/>
+    </row>
+    <row r="69" spans="1:19" ht="12.75" customHeight="1">
       <c r="A69" s="6"/>
       <c r="B69" s="6" t="s">
         <v>103</v>
@@ -8506,14 +8961,17 @@
       </c>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
-      <c r="P69" s="6">
+      <c r="P69" s="70" t="s">
+        <v>718</v>
+      </c>
+      <c r="Q69" s="6">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
-    </row>
-    <row r="70" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S69" s="6"/>
+    </row>
+    <row r="70" spans="1:19" ht="12.75" customHeight="1">
       <c r="A70" s="6" t="s">
         <v>104</v>
       </c>
@@ -8542,14 +9000,17 @@
       </c>
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
-      <c r="P70" s="6">
+      <c r="P70" s="70" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q70" s="6">
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
-      <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
-    </row>
-    <row r="71" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S70" s="6"/>
+    </row>
+    <row r="71" spans="1:19" ht="12.75" customHeight="1">
       <c r="A71" s="6"/>
       <c r="B71" s="6" t="s">
         <v>105</v>
@@ -8574,14 +9035,17 @@
       </c>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
-      <c r="P71" s="6">
+      <c r="P71" s="70" t="s">
+        <v>720</v>
+      </c>
+      <c r="Q71" s="6">
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
-      <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
-    </row>
-    <row r="72" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S71" s="6"/>
+    </row>
+    <row r="72" spans="1:19" ht="12.75" customHeight="1">
       <c r="A72" s="6" t="s">
         <v>106</v>
       </c>
@@ -8606,14 +9070,15 @@
       </c>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
-      <c r="P72" s="6">
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
-    </row>
-    <row r="73" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S72" s="6"/>
+    </row>
+    <row r="73" spans="1:19" ht="12.75" customHeight="1">
       <c r="A73" s="6"/>
       <c r="B73" s="6" t="s">
         <v>107</v>
@@ -8638,14 +9103,15 @@
       </c>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
-      <c r="P73" s="6">
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
-      <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
-    </row>
-    <row r="74" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S73" s="6"/>
+    </row>
+    <row r="74" spans="1:19" ht="12.75" customHeight="1">
       <c r="A74" s="6" t="s">
         <v>108</v>
       </c>
@@ -8670,14 +9136,15 @@
       </c>
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
-      <c r="P74" s="6">
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6">
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
-      <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
-    </row>
-    <row r="75" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S74" s="6"/>
+    </row>
+    <row r="75" spans="1:19" ht="12.75" customHeight="1">
       <c r="A75" s="30" t="s">
         <v>109</v>
       </c>
@@ -8702,14 +9169,15 @@
       </c>
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
-      <c r="P75" s="6">
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
-    </row>
-    <row r="76" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S75" s="6"/>
+    </row>
+    <row r="76" spans="1:19" ht="12.75" customHeight="1">
       <c r="A76" s="13"/>
       <c r="B76" s="13" t="s">
         <v>110</v>
@@ -8734,14 +9202,15 @@
       </c>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
-      <c r="P76" s="6">
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6">
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
-      <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
-    </row>
-    <row r="77" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S76" s="6"/>
+    </row>
+    <row r="77" spans="1:19" ht="12.75" customHeight="1">
       <c r="A77" s="13" t="s">
         <v>111</v>
       </c>
@@ -8766,14 +9235,15 @@
       </c>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
-      <c r="P77" s="6">
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
-    </row>
-    <row r="78" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S77" s="6"/>
+    </row>
+    <row r="78" spans="1:19" ht="12.75" customHeight="1">
       <c r="A78" s="13"/>
       <c r="B78" s="13" t="s">
         <v>112</v>
@@ -8798,14 +9268,15 @@
       </c>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
-      <c r="P78" s="6">
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6">
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
-    </row>
-    <row r="79" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S78" s="6"/>
+    </row>
+    <row r="79" spans="1:19" ht="12.75" customHeight="1">
       <c r="A79" s="13" t="s">
         <v>113</v>
       </c>
@@ -8830,14 +9301,15 @@
       </c>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
-      <c r="P79" s="6">
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6">
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
-    </row>
-    <row r="80" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S79" s="6"/>
+    </row>
+    <row r="80" spans="1:19" ht="12.75" customHeight="1">
       <c r="A80" s="13" t="s">
         <v>114</v>
       </c>
@@ -8862,14 +9334,15 @@
       </c>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
-      <c r="P80" s="6">
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6">
         <f t="shared" si="3"/>
         <v>113</v>
       </c>
-      <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
-    </row>
-    <row r="81" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S80" s="6"/>
+    </row>
+    <row r="81" spans="1:19" ht="12.75" customHeight="1">
       <c r="A81" s="13"/>
       <c r="B81" s="13" t="s">
         <v>115</v>
@@ -8894,14 +9367,15 @@
       </c>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
-      <c r="P81" s="6">
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6">
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
-    </row>
-    <row r="82" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S81" s="6"/>
+    </row>
+    <row r="82" spans="1:19" ht="12.75" customHeight="1">
       <c r="A82" s="13" t="s">
         <v>116</v>
       </c>
@@ -8926,14 +9400,15 @@
       </c>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
-      <c r="P82" s="6">
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
-    </row>
-    <row r="83" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S82" s="6"/>
+    </row>
+    <row r="83" spans="1:19" ht="12.75" customHeight="1">
       <c r="A83" s="13"/>
       <c r="B83" s="13" t="s">
         <v>117</v>
@@ -8958,14 +9433,15 @@
       </c>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
-      <c r="P83" s="6">
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6">
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
-      <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
-    </row>
-    <row r="84" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S83" s="6"/>
+    </row>
+    <row r="84" spans="1:19" ht="12.75" customHeight="1">
       <c r="A84" s="13" t="s">
         <v>118</v>
       </c>
@@ -8990,14 +9466,15 @@
       </c>
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
-      <c r="P84" s="6">
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6">
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
-      <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
-    </row>
-    <row r="85" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S84" s="6"/>
+    </row>
+    <row r="85" spans="1:19" ht="12.75" customHeight="1">
       <c r="A85" s="13"/>
       <c r="B85" s="13" t="s">
         <v>119</v>
@@ -9022,14 +9499,15 @@
       </c>
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
-      <c r="P85" s="6">
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6">
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
-      <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
-    </row>
-    <row r="86" spans="1:18" ht="12.75" customHeight="1">
+      <c r="S85" s="6"/>
+    </row>
+    <row r="86" spans="1:19" ht="12.75" customHeight="1">
       <c r="A86" s="13" t="s">
         <v>120</v>
       </c>
@@ -9054,11 +9532,12 @@
       </c>
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
-      <c r="P86" s="6">
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
-      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/MPC82/PitchTable.xlsx
+++ b/MPC82/PitchTable.xlsx
@@ -4838,135 +4838,135 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>25(P00)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>26(P01)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>27(P02)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>28(P03)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>29(P04)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(P05)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>31(P06)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>32(P07)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>33(P11)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>34(P14)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>35(P15)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>36(P16)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>37(P17)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>38(P20)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>39(P21)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40(P22)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>41(P23)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>42(P24)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>43(P25)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>44(P26)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>45(P56)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>46(P55)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>47(P34)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>48(P35)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>49(P36)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>50(P37)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>51(P40)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>52(P41)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>53(P42)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>54(P43)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>55(P46)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>56(P50)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>57(P51)</t>
+    <t>1(P00)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2(P01)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3(P02)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4(P03)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5(P04)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6(P05)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7(P06)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(P07)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9(P11)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10(P14)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11(P15)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12(P16)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13(P17)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14(P20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15(P21)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16(P22)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>17(P23)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18(P24)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>19(P25)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(P26)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21(P56)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22(P55)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23(P34)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>24(P35)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>25(P36)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>26(P37)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>29(P40)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(P41)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>31(P42)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>32(P43)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>33(P46)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>34(P50)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>35(P51)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5022,7 +5022,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5140,6 +5140,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA26D2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5335,7 +5371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5489,30 +5525,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5549,12 +5561,60 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFA26D2"/>
+      <color rgb="FFFF9900"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -5846,10 +5906,10 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P72" sqref="P72"/>
+      <selection pane="bottomRight" activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5917,10 +5977,10 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="17">
         <v>0</v>
       </c>
@@ -5958,7 +6018,7 @@
         <v>9</v>
       </c>
       <c r="O2" s="6"/>
-      <c r="P2" s="62"/>
+      <c r="P2" s="54"/>
       <c r="Q2" s="14">
         <v>35</v>
       </c>
@@ -5995,7 +6055,7 @@
         <v>473</v>
       </c>
       <c r="O3" s="16"/>
-      <c r="P3" s="59"/>
+      <c r="P3" s="51"/>
       <c r="Q3" s="6">
         <f>Q2+1</f>
         <v>36</v>
@@ -6052,7 +6112,7 @@
       <c r="O4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="59">
+      <c r="P4" s="51">
         <v>6</v>
       </c>
       <c r="Q4" s="6">
@@ -6097,7 +6157,7 @@
         <v>475</v>
       </c>
       <c r="O5" s="16"/>
-      <c r="P5" s="59"/>
+      <c r="P5" s="51"/>
       <c r="Q5" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6140,7 +6200,7 @@
         <v>476</v>
       </c>
       <c r="O6" s="16"/>
-      <c r="P6" s="59"/>
+      <c r="P6" s="51"/>
       <c r="Q6" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6185,7 +6245,7 @@
         <v>477</v>
       </c>
       <c r="O7" s="16"/>
-      <c r="P7" s="59"/>
+      <c r="P7" s="51"/>
       <c r="Q7" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6230,7 +6290,7 @@
         <v>478</v>
       </c>
       <c r="O8" s="16"/>
-      <c r="P8" s="59"/>
+      <c r="P8" s="51"/>
       <c r="Q8" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6275,7 +6335,7 @@
         <v>479</v>
       </c>
       <c r="O9" s="16"/>
-      <c r="P9" s="59"/>
+      <c r="P9" s="51"/>
       <c r="Q9" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6320,7 +6380,7 @@
         <v>480</v>
       </c>
       <c r="O10" s="16"/>
-      <c r="P10" s="59"/>
+      <c r="P10" s="51"/>
       <c r="Q10" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6365,7 +6425,7 @@
         <v>481</v>
       </c>
       <c r="O11" s="16"/>
-      <c r="P11" s="59"/>
+      <c r="P11" s="51"/>
       <c r="Q11" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -6410,7 +6470,7 @@
         <v>653</v>
       </c>
       <c r="O12" s="24"/>
-      <c r="P12" s="59"/>
+      <c r="P12" s="51"/>
       <c r="Q12" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6454,10 +6514,10 @@
       <c r="N13" s="31" t="s">
         <v>482</v>
       </c>
-      <c r="O13" s="52" t="s">
+      <c r="O13" s="64" t="s">
         <v>654</v>
       </c>
-      <c r="P13" s="60"/>
+      <c r="P13" s="52"/>
       <c r="Q13" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -6501,8 +6561,8 @@
       <c r="N14" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="O14" s="53"/>
-      <c r="P14" s="61"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="53"/>
       <c r="Q14" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -6540,8 +6600,8 @@
       <c r="N15" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="O15" s="53"/>
-      <c r="P15" s="63" t="s">
+      <c r="O15" s="65"/>
+      <c r="P15" s="55" t="s">
         <v>664</v>
       </c>
       <c r="Q15" s="6">
@@ -6578,8 +6638,8 @@
       <c r="N16" s="33" t="s">
         <v>485</v>
       </c>
-      <c r="O16" s="54"/>
-      <c r="P16" s="63" t="s">
+      <c r="O16" s="66"/>
+      <c r="P16" s="55" t="s">
         <v>665</v>
       </c>
       <c r="Q16" s="6">
@@ -6620,7 +6680,7 @@
         <v>486</v>
       </c>
       <c r="O17" s="7"/>
-      <c r="P17" s="64" t="s">
+      <c r="P17" s="56" t="s">
         <v>666</v>
       </c>
       <c r="Q17" s="6">
@@ -6659,7 +6719,7 @@
         <v>487</v>
       </c>
       <c r="O18" s="16"/>
-      <c r="P18" s="64" t="s">
+      <c r="P18" s="56" t="s">
         <v>667</v>
       </c>
       <c r="Q18" s="6">
@@ -6702,7 +6762,7 @@
         <v>488</v>
       </c>
       <c r="O19" s="16"/>
-      <c r="P19" s="64" t="s">
+      <c r="P19" s="56" t="s">
         <v>668</v>
       </c>
       <c r="Q19" s="6">
@@ -6749,7 +6809,7 @@
         <v>489</v>
       </c>
       <c r="O20" s="1"/>
-      <c r="P20" s="65" t="s">
+      <c r="P20" s="57" t="s">
         <v>669</v>
       </c>
       <c r="Q20" s="6">
@@ -6796,7 +6856,7 @@
         <v>490</v>
       </c>
       <c r="O21" s="1"/>
-      <c r="P21" s="65" t="s">
+      <c r="P21" s="57" t="s">
         <v>670</v>
       </c>
       <c r="Q21" s="6">
@@ -6843,7 +6903,7 @@
         <v>496</v>
       </c>
       <c r="O22" s="1"/>
-      <c r="P22" s="65" t="s">
+      <c r="P22" s="57" t="s">
         <v>671</v>
       </c>
       <c r="Q22" s="6">
@@ -6890,7 +6950,7 @@
         <v>498</v>
       </c>
       <c r="O23" s="1"/>
-      <c r="P23" s="65" t="s">
+      <c r="P23" s="57" t="s">
         <v>672</v>
       </c>
       <c r="Q23" s="6">
@@ -6939,7 +6999,7 @@
         <v>497</v>
       </c>
       <c r="O24" s="40"/>
-      <c r="P24" s="66" t="s">
+      <c r="P24" s="58" t="s">
         <v>673</v>
       </c>
       <c r="Q24" s="6">
@@ -6988,7 +7048,7 @@
         <v>499</v>
       </c>
       <c r="O25" s="1"/>
-      <c r="P25" s="65" t="s">
+      <c r="P25" s="57" t="s">
         <v>674</v>
       </c>
       <c r="Q25" s="6">
@@ -7037,7 +7097,7 @@
         <v>500</v>
       </c>
       <c r="O26" s="1"/>
-      <c r="P26" s="65" t="s">
+      <c r="P26" s="57" t="s">
         <v>675</v>
       </c>
       <c r="Q26" s="6">
@@ -7089,7 +7149,7 @@
         <v>491</v>
       </c>
       <c r="O27" s="1"/>
-      <c r="P27" s="65" t="s">
+      <c r="P27" s="57" t="s">
         <v>676</v>
       </c>
       <c r="Q27" s="6">
@@ -7141,7 +7201,7 @@
         <v>492</v>
       </c>
       <c r="O28" s="1"/>
-      <c r="P28" s="65" t="s">
+      <c r="P28" s="57" t="s">
         <v>677</v>
       </c>
       <c r="Q28" s="6">
@@ -7193,7 +7253,7 @@
         <v>493</v>
       </c>
       <c r="O29" s="1"/>
-      <c r="P29" s="65" t="s">
+      <c r="P29" s="57" t="s">
         <v>678</v>
       </c>
       <c r="Q29" s="6">
@@ -7245,7 +7305,7 @@
         <v>494</v>
       </c>
       <c r="O30" s="1"/>
-      <c r="P30" s="65" t="s">
+      <c r="P30" s="57" t="s">
         <v>679</v>
       </c>
       <c r="Q30" s="6">
@@ -7297,7 +7357,7 @@
         <v>495</v>
       </c>
       <c r="O31" s="1"/>
-      <c r="P31" s="65" t="s">
+      <c r="P31" s="57" t="s">
         <v>680</v>
       </c>
       <c r="Q31" s="6">
@@ -7349,7 +7409,7 @@
         <v>501</v>
       </c>
       <c r="O32" s="1"/>
-      <c r="P32" s="65" t="s">
+      <c r="P32" s="57" t="s">
         <v>681</v>
       </c>
       <c r="Q32" s="6">
@@ -7401,7 +7461,7 @@
         <v>502</v>
       </c>
       <c r="O33" s="1"/>
-      <c r="P33" s="65" t="s">
+      <c r="P33" s="57" t="s">
         <v>682</v>
       </c>
       <c r="Q33" s="6">
@@ -7453,7 +7513,7 @@
         <v>503</v>
       </c>
       <c r="O34" s="1"/>
-      <c r="P34" s="65" t="s">
+      <c r="P34" s="57" t="s">
         <v>683</v>
       </c>
       <c r="Q34" s="6">
@@ -7505,7 +7565,7 @@
         <v>504</v>
       </c>
       <c r="O35" s="1"/>
-      <c r="P35" s="65" t="s">
+      <c r="P35" s="57" t="s">
         <v>684</v>
       </c>
       <c r="Q35" s="6">
@@ -7557,7 +7617,7 @@
         <v>505</v>
       </c>
       <c r="O36" s="1"/>
-      <c r="P36" s="65" t="s">
+      <c r="P36" s="57" t="s">
         <v>685</v>
       </c>
       <c r="Q36" s="6">
@@ -7607,7 +7667,7 @@
         <v>506</v>
       </c>
       <c r="O37" s="1"/>
-      <c r="P37" s="65" t="s">
+      <c r="P37" s="57" t="s">
         <v>686</v>
       </c>
       <c r="Q37" s="6">
@@ -7657,7 +7717,7 @@
         <v>507</v>
       </c>
       <c r="O38" s="1"/>
-      <c r="P38" s="65" t="s">
+      <c r="P38" s="57" t="s">
         <v>687</v>
       </c>
       <c r="Q38" s="6">
@@ -7707,7 +7767,7 @@
         <v>508</v>
       </c>
       <c r="O39" s="40"/>
-      <c r="P39" s="66" t="s">
+      <c r="P39" s="58" t="s">
         <v>688</v>
       </c>
       <c r="Q39" s="6">
@@ -7759,7 +7819,7 @@
       <c r="O40" s="35" t="s">
         <v>657</v>
       </c>
-      <c r="P40" s="67" t="s">
+      <c r="P40" s="59" t="s">
         <v>689</v>
       </c>
       <c r="Q40" s="6">
@@ -7808,7 +7868,7 @@
       <c r="O41" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="P41" s="67" t="s">
+      <c r="P41" s="59" t="s">
         <v>690</v>
       </c>
       <c r="Q41" s="6">
@@ -7859,7 +7919,7 @@
       <c r="O42" s="41" t="s">
         <v>659</v>
       </c>
-      <c r="P42" s="68" t="s">
+      <c r="P42" s="60" t="s">
         <v>691</v>
       </c>
       <c r="Q42" s="6">
@@ -7903,7 +7963,7 @@
       <c r="O43" s="34" t="s">
         <v>660</v>
       </c>
-      <c r="P43" s="69" t="s">
+      <c r="P43" s="61" t="s">
         <v>692</v>
       </c>
       <c r="Q43" s="6">
@@ -7947,7 +8007,7 @@
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
-      <c r="P44" s="70" t="s">
+      <c r="P44" s="62" t="s">
         <v>693</v>
       </c>
       <c r="Q44" s="6">
@@ -7989,7 +8049,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
-      <c r="P45" s="70" t="s">
+      <c r="P45" s="62" t="s">
         <v>694</v>
       </c>
       <c r="Q45" s="6">
@@ -8031,7 +8091,7 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
-      <c r="P46" s="70" t="s">
+      <c r="P46" s="62" t="s">
         <v>695</v>
       </c>
       <c r="Q46" s="6">
@@ -8073,7 +8133,7 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
-      <c r="P47" s="70" t="s">
+      <c r="P47" s="62" t="s">
         <v>696</v>
       </c>
       <c r="Q47" s="6">
@@ -8115,7 +8175,7 @@
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
-      <c r="P48" s="70" t="s">
+      <c r="P48" s="62" t="s">
         <v>697</v>
       </c>
       <c r="Q48" s="6">
@@ -8159,7 +8219,7 @@
       </c>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
-      <c r="P49" s="70" t="s">
+      <c r="P49" s="62" t="s">
         <v>698</v>
       </c>
       <c r="Q49" s="6">
@@ -8199,7 +8259,7 @@
       </c>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
-      <c r="P50" s="70" t="s">
+      <c r="P50" s="62" t="s">
         <v>699</v>
       </c>
       <c r="Q50" s="6">
@@ -8241,7 +8301,7 @@
       </c>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
-      <c r="P51" s="70" t="s">
+      <c r="P51" s="62" t="s">
         <v>700</v>
       </c>
       <c r="Q51" s="6">
@@ -8284,7 +8344,7 @@
       </c>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
-      <c r="P52" s="70" t="s">
+      <c r="P52" s="62" t="s">
         <v>701</v>
       </c>
       <c r="Q52" s="6">
@@ -8327,7 +8387,7 @@
       </c>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
-      <c r="P53" s="70" t="s">
+      <c r="P53" s="62" t="s">
         <v>702</v>
       </c>
       <c r="Q53" s="6">
@@ -8370,7 +8430,7 @@
       </c>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
-      <c r="P54" s="70" t="s">
+      <c r="P54" s="62" t="s">
         <v>703</v>
       </c>
       <c r="Q54" s="6">
@@ -8413,7 +8473,7 @@
       </c>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
-      <c r="P55" s="70" t="s">
+      <c r="P55" s="62" t="s">
         <v>704</v>
       </c>
       <c r="Q55" s="6">
@@ -8456,7 +8516,7 @@
       </c>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
-      <c r="P56" s="70" t="s">
+      <c r="P56" s="62" t="s">
         <v>705</v>
       </c>
       <c r="Q56" s="6">
@@ -8497,7 +8557,7 @@
       </c>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
-      <c r="P57" s="70" t="s">
+      <c r="P57" s="62" t="s">
         <v>706</v>
       </c>
       <c r="Q57" s="6">
@@ -8536,7 +8596,7 @@
       </c>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
-      <c r="P58" s="70" t="s">
+      <c r="P58" s="62" t="s">
         <v>707</v>
       </c>
       <c r="Q58" s="6">
@@ -8575,7 +8635,7 @@
       </c>
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
-      <c r="P59" s="70" t="s">
+      <c r="P59" s="62" t="s">
         <v>708</v>
       </c>
       <c r="Q59" s="6">
@@ -8614,7 +8674,7 @@
       </c>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
-      <c r="P60" s="70" t="s">
+      <c r="P60" s="62" t="s">
         <v>709</v>
       </c>
       <c r="Q60" s="6">
@@ -8653,7 +8713,7 @@
       </c>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
-      <c r="P61" s="70" t="s">
+      <c r="P61" s="62" t="s">
         <v>710</v>
       </c>
       <c r="Q61" s="6">
@@ -8692,7 +8752,7 @@
       </c>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
-      <c r="P62" s="70" t="s">
+      <c r="P62" s="62" t="s">
         <v>711</v>
       </c>
       <c r="Q62" s="6">
@@ -8731,7 +8791,7 @@
       </c>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
-      <c r="P63" s="70" t="s">
+      <c r="P63" s="71" t="s">
         <v>712</v>
       </c>
       <c r="Q63" s="6">
@@ -8770,7 +8830,7 @@
       </c>
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
-      <c r="P64" s="70" t="s">
+      <c r="P64" s="3" t="s">
         <v>713</v>
       </c>
       <c r="Q64" s="6">
@@ -8809,7 +8869,7 @@
       </c>
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
-      <c r="P65" s="70" t="s">
+      <c r="P65" s="13" t="s">
         <v>714</v>
       </c>
       <c r="Q65" s="6">
@@ -8848,7 +8908,7 @@
       </c>
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
-      <c r="P66" s="70" t="s">
+      <c r="P66" s="72" t="s">
         <v>715</v>
       </c>
       <c r="Q66" s="6">
@@ -8887,7 +8947,7 @@
       </c>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
-      <c r="P67" s="70" t="s">
+      <c r="P67" s="73" t="s">
         <v>716</v>
       </c>
       <c r="Q67" s="6">
@@ -8926,7 +8986,7 @@
       </c>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
-      <c r="P68" s="70" t="s">
+      <c r="P68" s="74" t="s">
         <v>717</v>
       </c>
       <c r="Q68" s="6">
@@ -8961,7 +9021,7 @@
       </c>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
-      <c r="P69" s="70" t="s">
+      <c r="P69" s="76" t="s">
         <v>718</v>
       </c>
       <c r="Q69" s="6">
@@ -9000,7 +9060,7 @@
       </c>
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
-      <c r="P70" s="70" t="s">
+      <c r="P70" s="62" t="s">
         <v>719</v>
       </c>
       <c r="Q70" s="6">
@@ -9035,7 +9095,7 @@
       </c>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
-      <c r="P71" s="70" t="s">
+      <c r="P71" s="75" t="s">
         <v>720</v>
       </c>
       <c r="Q71" s="6">
@@ -10386,7 +10446,7 @@
       <c r="N24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="55" t="s">
+      <c r="O24" s="67" t="s">
         <v>37</v>
       </c>
       <c r="P24" s="16"/>
@@ -10423,7 +10483,7 @@
       <c r="N25" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O25" s="53"/>
+      <c r="O25" s="65"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
@@ -10458,7 +10518,7 @@
       <c r="N26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O26" s="53"/>
+      <c r="O26" s="65"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
@@ -10493,7 +10553,7 @@
       <c r="N27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O27" s="54"/>
+      <c r="O27" s="66"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
@@ -13510,11 +13570,11 @@
       <c r="C20" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="9" t="s">
         <v>186</v>
       </c>
@@ -13564,11 +13624,11 @@
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -13624,20 +13684,20 @@
       <c r="A25" s="6">
         <v>8</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -13826,20 +13886,20 @@
       <c r="A35" s="6">
         <v>18</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
@@ -15443,7 +15503,7 @@
     </row>
     <row r="11" spans="1:21" ht="12.75" customHeight="1">
       <c r="A11" s="19"/>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="70" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -15484,7 +15544,7 @@
     </row>
     <row r="12" spans="1:21" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="58"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="19" t="s">
         <v>220</v>
       </c>
@@ -15523,7 +15583,7 @@
     </row>
     <row r="13" spans="1:21" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="58"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="19" t="s">
         <v>223</v>
       </c>
@@ -15562,7 +15622,7 @@
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" s="58"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="19" t="s">
         <v>225</v>
       </c>
@@ -15601,7 +15661,7 @@
     </row>
     <row r="15" spans="1:21" ht="12.75" customHeight="1">
       <c r="A15" s="19"/>
-      <c r="B15" s="58"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="19" t="s">
         <v>228</v>
       </c>

--- a/MPC82/PitchTable.xlsx
+++ b/MPC82/PitchTable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="722">
   <si>
     <t>C調</t>
   </si>
@@ -4742,231 +4742,235 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>2(P20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3(P21)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4(P22)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5(P23)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6(P24)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7(P25)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(P26)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9(P56)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10(P55)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11(P34)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12(P35)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13(P36)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14(P37)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15(P40)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16(P41)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>17(P42)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18(P43)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>19(P46)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(P50)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21(P51)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22(P52)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23(P53)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>24(P54)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(P00)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2(P01)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3(P02)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4(P03)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5(P04)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6(P05)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7(P06)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(P07)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9(P11)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10(P14)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11(P15)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12(P16)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13(P17)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14(P20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15(P21)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16(P22)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>17(P23)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18(P24)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>19(P25)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(P26)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21(P56)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22(P55)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23(P34)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>24(P35)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>25(P36)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>26(P37)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>29(P40)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(P41)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>31(P42)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>32(P43)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>33(P46)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>34(P50)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>35(P51)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36(P52)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>1(P17)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2(P20)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3(P21)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4(P22)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5(P23)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6(P24)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7(P25)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8(P26)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9(P56)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10(P55)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>11(P34)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>12(P35)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>13(P36)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14(P37)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>15(P40)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16(P41)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>17(P42)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>18(P43)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>19(P46)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(P50)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>21(P51)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>22(P52)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>23(P53)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>24(P54)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1(P00)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2(P01)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3(P02)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4(P03)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5(P04)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6(P05)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7(P06)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8(P07)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9(P11)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10(P14)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>11(P15)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>12(P16)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>13(P17)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14(P20)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>15(P21)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16(P22)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>17(P23)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>18(P24)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>19(P25)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(P26)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>21(P56)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>22(P55)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>23(P34)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>24(P35)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>25(P36)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>26(P37)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>29(P40)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(P41)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>31(P42)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>32(P43)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>33(P46)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>34(P50)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>35(P51)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5022,7 +5026,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5176,6 +5180,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFA26D2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5371,7 +5381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5525,15 +5535,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5561,6 +5562,27 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5584,24 +5606,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5906,10 +5910,10 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P71" sqref="P71"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14:P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5977,10 +5981,10 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="67"/>
       <c r="C2" s="17">
         <v>0</v>
       </c>
@@ -6018,7 +6022,7 @@
         <v>9</v>
       </c>
       <c r="O2" s="6"/>
-      <c r="P2" s="54"/>
+      <c r="P2" s="51"/>
       <c r="Q2" s="14">
         <v>35</v>
       </c>
@@ -6055,7 +6059,6 @@
         <v>473</v>
       </c>
       <c r="O3" s="16"/>
-      <c r="P3" s="51"/>
       <c r="Q3" s="6">
         <f>Q2+1</f>
         <v>36</v>
@@ -6111,9 +6114,6 @@
       </c>
       <c r="O4" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="51">
-        <v>6</v>
       </c>
       <c r="Q4" s="6">
         <f t="shared" ref="Q4:Q67" si="0">Q3+1</f>
@@ -6157,7 +6157,6 @@
         <v>475</v>
       </c>
       <c r="O5" s="16"/>
-      <c r="P5" s="51"/>
       <c r="Q5" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6200,7 +6199,6 @@
         <v>476</v>
       </c>
       <c r="O6" s="16"/>
-      <c r="P6" s="51"/>
       <c r="Q6" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6245,7 +6243,6 @@
         <v>477</v>
       </c>
       <c r="O7" s="16"/>
-      <c r="P7" s="51"/>
       <c r="Q7" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6290,7 +6287,6 @@
         <v>478</v>
       </c>
       <c r="O8" s="16"/>
-      <c r="P8" s="51"/>
       <c r="Q8" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6335,7 +6331,6 @@
         <v>479</v>
       </c>
       <c r="O9" s="16"/>
-      <c r="P9" s="51"/>
       <c r="Q9" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6380,7 +6375,6 @@
         <v>480</v>
       </c>
       <c r="O10" s="16"/>
-      <c r="P10" s="51"/>
       <c r="Q10" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6425,7 +6419,6 @@
         <v>481</v>
       </c>
       <c r="O11" s="16"/>
-      <c r="P11" s="51"/>
       <c r="Q11" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -6470,7 +6463,6 @@
         <v>653</v>
       </c>
       <c r="O12" s="24"/>
-      <c r="P12" s="51"/>
       <c r="Q12" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6514,10 +6506,9 @@
       <c r="N13" s="31" t="s">
         <v>482</v>
       </c>
-      <c r="O13" s="64" t="s">
+      <c r="O13" s="68" t="s">
         <v>654</v>
       </c>
-      <c r="P13" s="52"/>
       <c r="Q13" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -6561,8 +6552,10 @@
       <c r="N14" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="O14" s="65"/>
-      <c r="P14" s="53"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="52" t="s">
+        <v>721</v>
+      </c>
       <c r="Q14" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -6600,8 +6593,8 @@
       <c r="N15" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="O15" s="65"/>
-      <c r="P15" s="55" t="s">
+      <c r="O15" s="69"/>
+      <c r="P15" s="52" t="s">
         <v>664</v>
       </c>
       <c r="Q15" s="6">
@@ -6638,8 +6631,8 @@
       <c r="N16" s="33" t="s">
         <v>485</v>
       </c>
-      <c r="O16" s="66"/>
-      <c r="P16" s="55" t="s">
+      <c r="O16" s="70"/>
+      <c r="P16" s="53" t="s">
         <v>665</v>
       </c>
       <c r="Q16" s="6">
@@ -6680,7 +6673,7 @@
         <v>486</v>
       </c>
       <c r="O17" s="7"/>
-      <c r="P17" s="56" t="s">
+      <c r="P17" s="53" t="s">
         <v>666</v>
       </c>
       <c r="Q17" s="6">
@@ -6719,7 +6712,7 @@
         <v>487</v>
       </c>
       <c r="O18" s="16"/>
-      <c r="P18" s="56" t="s">
+      <c r="P18" s="53" t="s">
         <v>667</v>
       </c>
       <c r="Q18" s="6">
@@ -6762,7 +6755,7 @@
         <v>488</v>
       </c>
       <c r="O19" s="16"/>
-      <c r="P19" s="56" t="s">
+      <c r="P19" s="54" t="s">
         <v>668</v>
       </c>
       <c r="Q19" s="6">
@@ -6809,7 +6802,7 @@
         <v>489</v>
       </c>
       <c r="O20" s="1"/>
-      <c r="P20" s="57" t="s">
+      <c r="P20" s="54" t="s">
         <v>669</v>
       </c>
       <c r="Q20" s="6">
@@ -6856,7 +6849,7 @@
         <v>490</v>
       </c>
       <c r="O21" s="1"/>
-      <c r="P21" s="57" t="s">
+      <c r="P21" s="54" t="s">
         <v>670</v>
       </c>
       <c r="Q21" s="6">
@@ -6903,7 +6896,7 @@
         <v>496</v>
       </c>
       <c r="O22" s="1"/>
-      <c r="P22" s="57" t="s">
+      <c r="P22" s="54" t="s">
         <v>671</v>
       </c>
       <c r="Q22" s="6">
@@ -6950,7 +6943,7 @@
         <v>498</v>
       </c>
       <c r="O23" s="1"/>
-      <c r="P23" s="57" t="s">
+      <c r="P23" s="55" t="s">
         <v>672</v>
       </c>
       <c r="Q23" s="6">
@@ -6999,7 +6992,7 @@
         <v>497</v>
       </c>
       <c r="O24" s="40"/>
-      <c r="P24" s="58" t="s">
+      <c r="P24" s="54" t="s">
         <v>673</v>
       </c>
       <c r="Q24" s="6">
@@ -7048,7 +7041,7 @@
         <v>499</v>
       </c>
       <c r="O25" s="1"/>
-      <c r="P25" s="57" t="s">
+      <c r="P25" s="54" t="s">
         <v>674</v>
       </c>
       <c r="Q25" s="6">
@@ -7097,7 +7090,7 @@
         <v>500</v>
       </c>
       <c r="O26" s="1"/>
-      <c r="P26" s="57" t="s">
+      <c r="P26" s="54" t="s">
         <v>675</v>
       </c>
       <c r="Q26" s="6">
@@ -7149,7 +7142,7 @@
         <v>491</v>
       </c>
       <c r="O27" s="1"/>
-      <c r="P27" s="57" t="s">
+      <c r="P27" s="54" t="s">
         <v>676</v>
       </c>
       <c r="Q27" s="6">
@@ -7201,7 +7194,7 @@
         <v>492</v>
       </c>
       <c r="O28" s="1"/>
-      <c r="P28" s="57" t="s">
+      <c r="P28" s="54" t="s">
         <v>677</v>
       </c>
       <c r="Q28" s="6">
@@ -7253,7 +7246,7 @@
         <v>493</v>
       </c>
       <c r="O29" s="1"/>
-      <c r="P29" s="57" t="s">
+      <c r="P29" s="54" t="s">
         <v>678</v>
       </c>
       <c r="Q29" s="6">
@@ -7305,7 +7298,7 @@
         <v>494</v>
       </c>
       <c r="O30" s="1"/>
-      <c r="P30" s="57" t="s">
+      <c r="P30" s="54" t="s">
         <v>679</v>
       </c>
       <c r="Q30" s="6">
@@ -7357,7 +7350,7 @@
         <v>495</v>
       </c>
       <c r="O31" s="1"/>
-      <c r="P31" s="57" t="s">
+      <c r="P31" s="54" t="s">
         <v>680</v>
       </c>
       <c r="Q31" s="6">
@@ -7409,7 +7402,7 @@
         <v>501</v>
       </c>
       <c r="O32" s="1"/>
-      <c r="P32" s="57" t="s">
+      <c r="P32" s="54" t="s">
         <v>681</v>
       </c>
       <c r="Q32" s="6">
@@ -7461,7 +7454,7 @@
         <v>502</v>
       </c>
       <c r="O33" s="1"/>
-      <c r="P33" s="57" t="s">
+      <c r="P33" s="54" t="s">
         <v>682</v>
       </c>
       <c r="Q33" s="6">
@@ -7513,7 +7506,7 @@
         <v>503</v>
       </c>
       <c r="O34" s="1"/>
-      <c r="P34" s="57" t="s">
+      <c r="P34" s="54" t="s">
         <v>683</v>
       </c>
       <c r="Q34" s="6">
@@ -7565,7 +7558,7 @@
         <v>504</v>
       </c>
       <c r="O35" s="1"/>
-      <c r="P35" s="57" t="s">
+      <c r="P35" s="54" t="s">
         <v>684</v>
       </c>
       <c r="Q35" s="6">
@@ -7617,7 +7610,7 @@
         <v>505</v>
       </c>
       <c r="O36" s="1"/>
-      <c r="P36" s="57" t="s">
+      <c r="P36" s="54" t="s">
         <v>685</v>
       </c>
       <c r="Q36" s="6">
@@ -7667,7 +7660,7 @@
         <v>506</v>
       </c>
       <c r="O37" s="1"/>
-      <c r="P37" s="57" t="s">
+      <c r="P37" s="54" t="s">
         <v>686</v>
       </c>
       <c r="Q37" s="6">
@@ -7717,7 +7710,7 @@
         <v>507</v>
       </c>
       <c r="O38" s="1"/>
-      <c r="P38" s="57" t="s">
+      <c r="P38" s="55" t="s">
         <v>687</v>
       </c>
       <c r="Q38" s="6">
@@ -7767,7 +7760,7 @@
         <v>508</v>
       </c>
       <c r="O39" s="40"/>
-      <c r="P39" s="58" t="s">
+      <c r="P39" s="56" t="s">
         <v>688</v>
       </c>
       <c r="Q39" s="6">
@@ -7819,7 +7812,7 @@
       <c r="O40" s="35" t="s">
         <v>657</v>
       </c>
-      <c r="P40" s="59" t="s">
+      <c r="P40" s="56" t="s">
         <v>689</v>
       </c>
       <c r="Q40" s="6">
@@ -7868,7 +7861,7 @@
       <c r="O41" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="P41" s="59" t="s">
+      <c r="P41" s="57" t="s">
         <v>690</v>
       </c>
       <c r="Q41" s="6">
@@ -7919,7 +7912,7 @@
       <c r="O42" s="41" t="s">
         <v>659</v>
       </c>
-      <c r="P42" s="60" t="s">
+      <c r="P42" s="58" t="s">
         <v>691</v>
       </c>
       <c r="Q42" s="6">
@@ -7963,7 +7956,7 @@
       <c r="O43" s="34" t="s">
         <v>660</v>
       </c>
-      <c r="P43" s="61" t="s">
+      <c r="P43" s="59" t="s">
         <v>692</v>
       </c>
       <c r="Q43" s="6">
@@ -8007,7 +8000,7 @@
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
-      <c r="P44" s="62" t="s">
+      <c r="P44" s="59" t="s">
         <v>693</v>
       </c>
       <c r="Q44" s="6">
@@ -8049,7 +8042,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
-      <c r="P45" s="62" t="s">
+      <c r="P45" s="59" t="s">
         <v>694</v>
       </c>
       <c r="Q45" s="6">
@@ -8091,7 +8084,7 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
-      <c r="P46" s="62" t="s">
+      <c r="P46" s="59" t="s">
         <v>695</v>
       </c>
       <c r="Q46" s="6">
@@ -8133,7 +8126,7 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
-      <c r="P47" s="62" t="s">
+      <c r="P47" s="59" t="s">
         <v>696</v>
       </c>
       <c r="Q47" s="6">
@@ -8175,7 +8168,7 @@
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
-      <c r="P48" s="62" t="s">
+      <c r="P48" s="59" t="s">
         <v>697</v>
       </c>
       <c r="Q48" s="6">
@@ -8219,7 +8212,7 @@
       </c>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
-      <c r="P49" s="62" t="s">
+      <c r="P49" s="59" t="s">
         <v>698</v>
       </c>
       <c r="Q49" s="6">
@@ -8259,7 +8252,7 @@
       </c>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
-      <c r="P50" s="62" t="s">
+      <c r="P50" s="59" t="s">
         <v>699</v>
       </c>
       <c r="Q50" s="6">
@@ -8301,7 +8294,7 @@
       </c>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
-      <c r="P51" s="62" t="s">
+      <c r="P51" s="59" t="s">
         <v>700</v>
       </c>
       <c r="Q51" s="6">
@@ -8344,7 +8337,7 @@
       </c>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
-      <c r="P52" s="62" t="s">
+      <c r="P52" s="59" t="s">
         <v>701</v>
       </c>
       <c r="Q52" s="6">
@@ -8387,7 +8380,7 @@
       </c>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
-      <c r="P53" s="62" t="s">
+      <c r="P53" s="59" t="s">
         <v>702</v>
       </c>
       <c r="Q53" s="6">
@@ -8430,7 +8423,7 @@
       </c>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
-      <c r="P54" s="62" t="s">
+      <c r="P54" s="59" t="s">
         <v>703</v>
       </c>
       <c r="Q54" s="6">
@@ -8473,7 +8466,7 @@
       </c>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
-      <c r="P55" s="62" t="s">
+      <c r="P55" s="59" t="s">
         <v>704</v>
       </c>
       <c r="Q55" s="6">
@@ -8516,7 +8509,7 @@
       </c>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
-      <c r="P56" s="62" t="s">
+      <c r="P56" s="59" t="s">
         <v>705</v>
       </c>
       <c r="Q56" s="6">
@@ -8557,7 +8550,7 @@
       </c>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
-      <c r="P57" s="62" t="s">
+      <c r="P57" s="59" t="s">
         <v>706</v>
       </c>
       <c r="Q57" s="6">
@@ -8596,7 +8589,7 @@
       </c>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
-      <c r="P58" s="62" t="s">
+      <c r="P58" s="59" t="s">
         <v>707</v>
       </c>
       <c r="Q58" s="6">
@@ -8635,7 +8628,7 @@
       </c>
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
-      <c r="P59" s="62" t="s">
+      <c r="P59" s="59" t="s">
         <v>708</v>
       </c>
       <c r="Q59" s="6">
@@ -8674,7 +8667,7 @@
       </c>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
-      <c r="P60" s="62" t="s">
+      <c r="P60" s="59" t="s">
         <v>709</v>
       </c>
       <c r="Q60" s="6">
@@ -8713,7 +8706,7 @@
       </c>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
-      <c r="P61" s="62" t="s">
+      <c r="P61" s="59" t="s">
         <v>710</v>
       </c>
       <c r="Q61" s="6">
@@ -8752,7 +8745,7 @@
       </c>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
-      <c r="P62" s="62" t="s">
+      <c r="P62" s="60" t="s">
         <v>711</v>
       </c>
       <c r="Q62" s="6">
@@ -8791,7 +8784,7 @@
       </c>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
-      <c r="P63" s="71" t="s">
+      <c r="P63" s="3" t="s">
         <v>712</v>
       </c>
       <c r="Q63" s="6">
@@ -8830,7 +8823,7 @@
       </c>
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
-      <c r="P64" s="3" t="s">
+      <c r="P64" s="13" t="s">
         <v>713</v>
       </c>
       <c r="Q64" s="6">
@@ -8869,7 +8862,7 @@
       </c>
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
-      <c r="P65" s="13" t="s">
+      <c r="P65" s="61" t="s">
         <v>714</v>
       </c>
       <c r="Q65" s="6">
@@ -8908,7 +8901,7 @@
       </c>
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
-      <c r="P66" s="72" t="s">
+      <c r="P66" s="62" t="s">
         <v>715</v>
       </c>
       <c r="Q66" s="6">
@@ -8947,7 +8940,7 @@
       </c>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
-      <c r="P67" s="73" t="s">
+      <c r="P67" s="63" t="s">
         <v>716</v>
       </c>
       <c r="Q67" s="6">
@@ -8986,7 +8979,7 @@
       </c>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
-      <c r="P68" s="74" t="s">
+      <c r="P68" s="65" t="s">
         <v>717</v>
       </c>
       <c r="Q68" s="6">
@@ -9021,7 +9014,7 @@
       </c>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
-      <c r="P69" s="76" t="s">
+      <c r="P69" s="59" t="s">
         <v>718</v>
       </c>
       <c r="Q69" s="6">
@@ -9060,7 +9053,7 @@
       </c>
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
-      <c r="P70" s="62" t="s">
+      <c r="P70" s="64" t="s">
         <v>719</v>
       </c>
       <c r="Q70" s="6">
@@ -9095,7 +9088,7 @@
       </c>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
-      <c r="P71" s="75" t="s">
+      <c r="P71" s="66" t="s">
         <v>720</v>
       </c>
       <c r="Q71" s="6">
@@ -9130,7 +9123,6 @@
       </c>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
       <c r="Q72" s="6">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -9163,7 +9155,6 @@
       </c>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
       <c r="Q73" s="6">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -9196,7 +9187,6 @@
       </c>
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
       <c r="Q74" s="6">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -9229,7 +9219,6 @@
       </c>
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
       <c r="Q75" s="6">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -9262,7 +9251,6 @@
       </c>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
       <c r="Q76" s="6">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -9295,7 +9283,6 @@
       </c>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
       <c r="Q77" s="6">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -9328,7 +9315,6 @@
       </c>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
       <c r="Q78" s="6">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -9361,7 +9347,6 @@
       </c>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
       <c r="Q79" s="6">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -9394,7 +9379,6 @@
       </c>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
       <c r="Q80" s="6">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -9427,7 +9411,6 @@
       </c>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
       <c r="Q81" s="6">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -9460,7 +9443,6 @@
       </c>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
       <c r="Q82" s="6">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -10446,7 +10428,7 @@
       <c r="N24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="67" t="s">
+      <c r="O24" s="71" t="s">
         <v>37</v>
       </c>
       <c r="P24" s="16"/>
@@ -10483,7 +10465,7 @@
       <c r="N25" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O25" s="65"/>
+      <c r="O25" s="69"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
@@ -10518,7 +10500,7 @@
       <c r="N26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O26" s="65"/>
+      <c r="O26" s="69"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
@@ -10553,7 +10535,7 @@
       <c r="N27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O27" s="66"/>
+      <c r="O27" s="70"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
@@ -13570,11 +13552,11 @@
       <c r="C20" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
       <c r="G20" s="9" t="s">
         <v>186</v>
       </c>
@@ -13624,11 +13606,11 @@
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -13684,20 +13666,20 @@
       <c r="A25" s="6">
         <v>8</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -13886,20 +13868,20 @@
       <c r="A35" s="6">
         <v>18</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
@@ -15503,7 +15485,7 @@
     </row>
     <row r="11" spans="1:21" ht="12.75" customHeight="1">
       <c r="A11" s="19"/>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="74" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -15544,7 +15526,7 @@
     </row>
     <row r="12" spans="1:21" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="70"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="19" t="s">
         <v>220</v>
       </c>
@@ -15583,7 +15565,7 @@
     </row>
     <row r="13" spans="1:21" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="70"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="19" t="s">
         <v>223</v>
       </c>
@@ -15622,7 +15604,7 @@
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" s="70"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="19" t="s">
         <v>225</v>
       </c>
@@ -15661,7 +15643,7 @@
     </row>
     <row r="15" spans="1:21" ht="12.75" customHeight="1">
       <c r="A15" s="19"/>
-      <c r="B15" s="70"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="19" t="s">
         <v>228</v>
       </c>
